--- a/data/nice.xlsx
+++ b/data/nice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aminata\Desktop\IMAFA\UE Mathematiques pour la Modélisation\actuariat\Assurance_meteo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB32ED91-7348-47C8-A90B-B1DE0BE55CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B19D37-8DDE-47E9-87B9-049549F1C4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,6 +39,10 @@
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Feuil1;Extended Properties=&quot;&quot;" command="SELECT * FROM [Feuil1]"/>
   </connection>
 </connections>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -364,65 +368,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9043F5E7-EBFE-4CC0-AE2A-182A16882B0E}">
-  <dimension ref="A1:P367"/>
+  <dimension ref="A1:U367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="P1" sqref="P1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
+        <f>2001</f>
         <v>2001</v>
       </c>
       <c r="B1" s="1">
+        <f>A1+1</f>
         <v>2002</v>
       </c>
       <c r="C1" s="1">
+        <f t="shared" ref="C1:U1" si="0">B1+1</f>
         <v>2003</v>
       </c>
       <c r="D1" s="1">
+        <f t="shared" si="0"/>
         <v>2004</v>
       </c>
       <c r="E1" s="1">
+        <f t="shared" si="0"/>
         <v>2005</v>
       </c>
       <c r="F1" s="1">
+        <f t="shared" si="0"/>
         <v>2006</v>
       </c>
       <c r="G1" s="1">
+        <f t="shared" si="0"/>
         <v>2007</v>
       </c>
       <c r="H1" s="1">
+        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
       <c r="I1" s="1">
+        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
       <c r="J1" s="1">
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
       <c r="K1" s="1">
+        <f t="shared" si="0"/>
         <v>2011</v>
       </c>
       <c r="L1" s="1">
+        <f t="shared" si="0"/>
         <v>2012</v>
       </c>
       <c r="M1" s="1">
+        <f t="shared" si="0"/>
         <v>2013</v>
       </c>
       <c r="N1" s="1">
+        <f t="shared" si="0"/>
         <v>2014</v>
       </c>
       <c r="O1" s="1">
+        <f t="shared" si="0"/>
         <v>2015</v>
       </c>
       <c r="P1" s="1">
+        <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="R1" s="1">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="S1" s="1">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="T1" s="1">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="U1" s="1">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -471,8 +511,23 @@
       <c r="P2" s="1">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.4</v>
       </c>
@@ -521,8 +576,23 @@
       <c r="P3" s="1">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -571,8 +641,23 @@
       <c r="P4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>17</v>
       </c>
@@ -621,8 +706,23 @@
       <c r="P5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5.8</v>
       </c>
@@ -671,8 +771,23 @@
       <c r="P6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -721,8 +836,23 @@
       <c r="P7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>2.6</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -771,8 +901,23 @@
       <c r="P8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.2</v>
       </c>
@@ -821,8 +966,23 @@
       <c r="P9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>22.3</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -871,8 +1031,23 @@
       <c r="P10" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>18.8</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -921,8 +1096,23 @@
       <c r="P11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <v>1.2</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1.8</v>
       </c>
@@ -971,8 +1161,23 @@
       <c r="P12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3.4</v>
       </c>
@@ -1021,8 +1226,23 @@
       <c r="P13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3.3</v>
       </c>
@@ -1071,8 +1291,23 @@
       <c r="P14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -1121,8 +1356,23 @@
       <c r="P15" s="1">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>3.4</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -1171,8 +1421,23 @@
       <c r="P16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.2</v>
       </c>
@@ -1221,8 +1486,23 @@
       <c r="P17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>10.6</v>
       </c>
@@ -1271,8 +1551,23 @@
       <c r="P18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.2</v>
+      </c>
+      <c r="T18">
+        <v>18</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.8</v>
       </c>
@@ -1321,8 +1616,23 @@
       <c r="P19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.8</v>
       </c>
@@ -1371,8 +1681,23 @@
       <c r="P20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -1421,8 +1746,23 @@
       <c r="P21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -1471,8 +1811,23 @@
       <c r="P22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -1521,8 +1876,23 @@
       <c r="P23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <v>3.2</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1.2</v>
       </c>
@@ -1571,8 +1941,23 @@
       <c r="P24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.2</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>10.4</v>
       </c>
@@ -1621,8 +2006,23 @@
       <c r="P25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>2</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>6.2</v>
       </c>
@@ -1671,8 +2071,23 @@
       <c r="P26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0.2</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>8.8000000000000007</v>
       </c>
@@ -1721,8 +2136,23 @@
       <c r="P27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>5.4</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>8.9</v>
       </c>
@@ -1771,8 +2201,23 @@
       <c r="P28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R28">
+        <v>0.8</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0.6</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>3.6</v>
       </c>
@@ -1821,8 +2266,23 @@
       <c r="P29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29">
+        <v>3.2</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.2</v>
       </c>
@@ -1871,8 +2331,23 @@
       <c r="P30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>1.2</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.3</v>
       </c>
@@ -1921,8 +2396,23 @@
       <c r="P31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -1971,8 +2461,23 @@
       <c r="P32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>15.5</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.3</v>
       </c>
@@ -2021,8 +2526,23 @@
       <c r="P33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0.2</v>
+      </c>
+      <c r="S33">
+        <v>52.9</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -2071,8 +2591,23 @@
       <c r="P34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34">
+        <v>7</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>24</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -2121,8 +2656,23 @@
       <c r="P35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q35">
+        <v>3.2</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -2171,8 +2721,23 @@
       <c r="P36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q36">
+        <v>6</v>
+      </c>
+      <c r="R36">
+        <v>2.4</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -2221,8 +2786,23 @@
       <c r="P37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q37">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="R37">
+        <v>2.6</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -2271,8 +2851,23 @@
       <c r="P38" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>1.8</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -2321,8 +2916,23 @@
       <c r="P39" s="1">
         <v>24.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>5.6</v>
       </c>
@@ -2371,8 +2981,23 @@
       <c r="P40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q40">
+        <v>4.2</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -2421,8 +3046,23 @@
       <c r="P41" s="1">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q41">
+        <v>4</v>
+      </c>
+      <c r="R41">
+        <v>2.6</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -2471,8 +3111,23 @@
       <c r="P42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0</v>
       </c>
@@ -2521,8 +3176,23 @@
       <c r="P43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0</v>
       </c>
@@ -2571,8 +3241,23 @@
       <c r="P44" s="1">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>6.1</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0</v>
       </c>
@@ -2621,8 +3306,23 @@
       <c r="P45" s="1">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>1.8</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0</v>
       </c>
@@ -2671,8 +3371,23 @@
       <c r="P46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0</v>
       </c>
@@ -2721,8 +3436,23 @@
       <c r="P47" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -2771,8 +3501,23 @@
       <c r="P48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>1.2</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -2821,8 +3566,23 @@
       <c r="P49" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>3.2</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -2871,8 +3631,23 @@
       <c r="P50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>0</v>
       </c>
@@ -2921,8 +3696,23 @@
       <c r="P51" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0.8</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>0</v>
       </c>
@@ -2971,8 +3761,23 @@
       <c r="P52" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>0</v>
       </c>
@@ -3021,8 +3826,23 @@
       <c r="P53" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>0</v>
       </c>
@@ -3071,8 +3891,23 @@
       <c r="P54" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>0</v>
       </c>
@@ -3121,8 +3956,23 @@
       <c r="P55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>5.2</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>0.8</v>
       </c>
@@ -3171,8 +4021,23 @@
       <c r="P56" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>4.7</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>7.6</v>
       </c>
@@ -3221,8 +4086,23 @@
       <c r="P57" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>6.2</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>7.6</v>
       </c>
@@ -3271,8 +4151,23 @@
       <c r="P58" s="1">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>17.399999999999999</v>
       </c>
@@ -3321,8 +4216,23 @@
       <c r="P59" s="1">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q59">
+        <v>6.4</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1.2</v>
       </c>
@@ -3371,8 +4281,23 @@
       <c r="P60" s="1">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q60">
+        <v>1.2</v>
+      </c>
+      <c r="R60">
+        <v>10.3</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1.3</v>
       </c>
@@ -3421,8 +4346,23 @@
       <c r="P61" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>20.2</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>14.4</v>
       </c>
@@ -3471,8 +4411,23 @@
       <c r="P62" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>11.6</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>4.8</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>0.4</v>
       </c>
@@ -3521,8 +4476,23 @@
       <c r="P63" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q63">
+        <v>0.8</v>
+      </c>
+      <c r="R63">
+        <v>6.9</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>43.2</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>0.4</v>
       </c>
@@ -3571,8 +4541,23 @@
       <c r="P64" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q64">
+        <v>9.5</v>
+      </c>
+      <c r="R64">
+        <v>9.1</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>0.5</v>
       </c>
@@ -3621,8 +4606,23 @@
       <c r="P65" s="1">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>10</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -3671,8 +4671,23 @@
       <c r="P66" s="1">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>22.2</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>0.2</v>
       </c>
@@ -3721,8 +4736,23 @@
       <c r="P67" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>12.4</v>
       </c>
@@ -3771,8 +4801,23 @@
       <c r="P68" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>12.4</v>
       </c>
@@ -3821,8 +4866,23 @@
       <c r="P69" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>0</v>
       </c>
@@ -3871,8 +4931,23 @@
       <c r="P70" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>18.2</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>0</v>
       </c>
@@ -3921,8 +4996,23 @@
       <c r="P71" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>21.8</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1.6</v>
       </c>
@@ -3971,8 +5061,23 @@
       <c r="P72" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>1.5</v>
       </c>
@@ -4021,8 +5126,23 @@
       <c r="P73" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0.2</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>0</v>
       </c>
@@ -4071,8 +5191,23 @@
       <c r="P74" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>5.6</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>0</v>
       </c>
@@ -4121,8 +5256,23 @@
       <c r="P75" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>18.600000000000001</v>
       </c>
@@ -4171,8 +5321,23 @@
       <c r="P76" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>7.9</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>3</v>
       </c>
@@ -4221,8 +5386,23 @@
       <c r="P77" s="1">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>5.6</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>0.2</v>
       </c>
@@ -4271,8 +5451,23 @@
       <c r="P78" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>4.7</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>0</v>
       </c>
@@ -4321,8 +5516,23 @@
       <c r="P79" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>0</v>
       </c>
@@ -4371,8 +5581,23 @@
       <c r="P80" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0.4</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>0</v>
       </c>
@@ -4421,8 +5646,23 @@
       <c r="P81" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>0</v>
       </c>
@@ -4471,8 +5711,23 @@
       <c r="P82" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>0</v>
       </c>
@@ -4521,8 +5776,23 @@
       <c r="P83" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q83">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>0</v>
       </c>
@@ -4571,8 +5841,23 @@
       <c r="P84" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q84">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>0.2</v>
       </c>
@@ -4621,8 +5906,23 @@
       <c r="P85" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q85">
+        <v>20</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>0.3</v>
       </c>
@@ -4671,8 +5971,23 @@
       <c r="P86" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>0</v>
       </c>
@@ -4721,8 +6036,23 @@
       <c r="P87" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0.4</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>3.2</v>
       </c>
@@ -4771,8 +6101,23 @@
       <c r="P88" s="1">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>3.6</v>
       </c>
@@ -4821,8 +6166,23 @@
       <c r="P89" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>3.6</v>
       </c>
@@ -4871,8 +6231,23 @@
       <c r="P90" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>14.4</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>0</v>
       </c>
@@ -4921,8 +6296,23 @@
       <c r="P91" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>0.6</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>0</v>
       </c>
@@ -4971,8 +6361,23 @@
       <c r="P92" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q92">
+        <v>4</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>1.2</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>0</v>
       </c>
@@ -5021,8 +6426,23 @@
       <c r="P93" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q93">
+        <v>6</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>2.6</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>0</v>
       </c>
@@ -5071,8 +6491,23 @@
       <c r="P94" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>11.1</v>
+      </c>
+      <c r="S94">
+        <v>48.3</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>0</v>
       </c>
@@ -5121,8 +6556,23 @@
       <c r="P95" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>0</v>
       </c>
@@ -5171,8 +6621,23 @@
       <c r="P96" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>8.8000000000000007</v>
       </c>
@@ -5221,8 +6686,23 @@
       <c r="P97" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>11.1</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>0.2</v>
       </c>
@@ -5271,8 +6751,23 @@
       <c r="P98" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>0.3</v>
       </c>
@@ -5321,8 +6816,23 @@
       <c r="P99" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0.6</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>0</v>
       </c>
@@ -5371,8 +6881,23 @@
       <c r="P100" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>13.2</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>0</v>
       </c>
@@ -5421,8 +6946,23 @@
       <c r="P101" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>12.5</v>
+      </c>
+      <c r="S101">
+        <v>0.2</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>0</v>
       </c>
@@ -5471,8 +7011,23 @@
       <c r="P102" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>12.2</v>
+      </c>
+      <c r="S102">
+        <v>0.6</v>
+      </c>
+      <c r="T102">
+        <v>0</v>
+      </c>
+      <c r="U102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>0</v>
       </c>
@@ -5521,8 +7076,23 @@
       <c r="P103" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>59.3</v>
+      </c>
+      <c r="S103">
+        <v>0.8</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>0</v>
       </c>
@@ -5571,8 +7141,23 @@
       <c r="P104" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>0.2</v>
+      </c>
+      <c r="S104">
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>0</v>
       </c>
@@ -5621,8 +7206,23 @@
       <c r="P105" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>4.2</v>
+      </c>
+      <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>0</v>
       </c>
@@ -5671,8 +7271,23 @@
       <c r="P106" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <v>0</v>
+      </c>
+      <c r="T106">
+        <v>0</v>
+      </c>
+      <c r="U106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>0</v>
       </c>
@@ -5721,8 +7336,23 @@
       <c r="P107" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>0</v>
+      </c>
+      <c r="S107">
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>0</v>
       </c>
@@ -5771,8 +7401,23 @@
       <c r="P108" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>0</v>
+      </c>
+      <c r="S108">
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>0</v>
       </c>
@@ -5821,8 +7466,23 @@
       <c r="P109" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q109">
+        <v>3</v>
+      </c>
+      <c r="R109">
+        <v>0</v>
+      </c>
+      <c r="S109">
+        <v>0</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>0</v>
       </c>
@@ -5871,8 +7531,23 @@
       <c r="P110" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q110">
+        <v>3.8</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>0.4</v>
       </c>
@@ -5921,8 +7596,23 @@
       <c r="P111" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>0</v>
+      </c>
+      <c r="S111">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>12.4</v>
+      </c>
+      <c r="U111">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>0.5</v>
       </c>
@@ -5971,8 +7661,23 @@
       <c r="P112" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>1.2</v>
+      </c>
+      <c r="U112">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>0.2</v>
       </c>
@@ -6021,8 +7726,23 @@
       <c r="P113" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+      <c r="S113">
+        <v>1.4</v>
+      </c>
+      <c r="T113">
+        <v>0.2</v>
+      </c>
+      <c r="U113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2</v>
       </c>
@@ -6071,8 +7791,23 @@
       <c r="P114" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>0</v>
+      </c>
+      <c r="S114">
+        <v>38</v>
+      </c>
+      <c r="T114">
+        <v>0</v>
+      </c>
+      <c r="U114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2</v>
       </c>
@@ -6121,8 +7856,23 @@
       <c r="P115" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <v>19.2</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>0.2</v>
       </c>
@@ -6171,8 +7921,23 @@
       <c r="P116" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q116">
+        <v>8.9</v>
+      </c>
+      <c r="R116">
+        <v>0</v>
+      </c>
+      <c r="S116">
+        <v>4</v>
+      </c>
+      <c r="T116">
+        <v>0</v>
+      </c>
+      <c r="U116">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>0.3</v>
       </c>
@@ -6221,8 +7986,23 @@
       <c r="P117" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q117">
+        <v>7.2</v>
+      </c>
+      <c r="R117">
+        <v>0</v>
+      </c>
+      <c r="S117">
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <v>0</v>
+      </c>
+      <c r="U117">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>0</v>
       </c>
@@ -6271,8 +8051,23 @@
       <c r="P118" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q118">
+        <v>0.8</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <v>0</v>
+      </c>
+      <c r="T118">
+        <v>0</v>
+      </c>
+      <c r="U118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>0</v>
       </c>
@@ -6321,8 +8116,23 @@
       <c r="P119" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>0</v>
+      </c>
+      <c r="S119">
+        <v>0</v>
+      </c>
+      <c r="T119">
+        <v>11</v>
+      </c>
+      <c r="U119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>0</v>
       </c>
@@ -6371,8 +8181,23 @@
       <c r="P120" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>5.4</v>
+      </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <v>54.7</v>
+      </c>
+      <c r="U120">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>6.8</v>
       </c>
@@ -6421,8 +8246,23 @@
       <c r="P121" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q121">
+        <v>30.8</v>
+      </c>
+      <c r="R121">
+        <v>0</v>
+      </c>
+      <c r="S121">
+        <v>0</v>
+      </c>
+      <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>21.8</v>
       </c>
@@ -6471,8 +8311,23 @@
       <c r="P122" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q122">
+        <v>0.2</v>
+      </c>
+      <c r="R122">
+        <v>1.6</v>
+      </c>
+      <c r="S122">
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>5.6</v>
       </c>
@@ -6521,8 +8376,23 @@
       <c r="P123" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>0</v>
+      </c>
+      <c r="S123">
+        <v>0.6</v>
+      </c>
+      <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>1.6</v>
       </c>
@@ -6571,8 +8441,23 @@
       <c r="P124" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>1.4</v>
+      </c>
+      <c r="S124">
+        <v>0</v>
+      </c>
+      <c r="T124">
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>0.8</v>
       </c>
@@ -6621,8 +8506,23 @@
       <c r="P125" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q125">
+        <v>0.2</v>
+      </c>
+      <c r="R125">
+        <v>0.4</v>
+      </c>
+      <c r="S125">
+        <v>2.6</v>
+      </c>
+      <c r="T125">
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>0.8</v>
       </c>
@@ -6671,8 +8571,23 @@
       <c r="P126" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q126">
+        <v>0.2</v>
+      </c>
+      <c r="R126">
+        <v>0</v>
+      </c>
+      <c r="S126">
+        <v>0</v>
+      </c>
+      <c r="T126">
+        <v>0</v>
+      </c>
+      <c r="U126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>0.8</v>
       </c>
@@ -6721,8 +8636,23 @@
       <c r="P127" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q127">
+        <v>16.7</v>
+      </c>
+      <c r="R127">
+        <v>0.2</v>
+      </c>
+      <c r="S127">
+        <v>0</v>
+      </c>
+      <c r="T127">
+        <v>0</v>
+      </c>
+      <c r="U127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>0.8</v>
       </c>
@@ -6771,8 +8701,23 @@
       <c r="P128" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <v>0.2</v>
+      </c>
+      <c r="S128">
+        <v>0</v>
+      </c>
+      <c r="T128">
+        <v>0</v>
+      </c>
+      <c r="U128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>0</v>
       </c>
@@ -6821,8 +8766,23 @@
       <c r="P129" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <v>0</v>
+      </c>
+      <c r="S129">
+        <v>5</v>
+      </c>
+      <c r="T129">
+        <v>0</v>
+      </c>
+      <c r="U129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>0</v>
       </c>
@@ -6871,8 +8831,23 @@
       <c r="P130" s="1">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <v>0</v>
+      </c>
+      <c r="S130">
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <v>0</v>
+      </c>
+      <c r="U130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>0.2</v>
       </c>
@@ -6921,8 +8896,23 @@
       <c r="P131" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>0</v>
+      </c>
+      <c r="S131">
+        <v>0</v>
+      </c>
+      <c r="T131">
+        <v>1</v>
+      </c>
+      <c r="U131">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>0.3</v>
       </c>
@@ -6971,8 +8961,23 @@
       <c r="P132" s="1">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q132">
+        <v>0.2</v>
+      </c>
+      <c r="R132">
+        <v>0</v>
+      </c>
+      <c r="S132">
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <v>43.3</v>
+      </c>
+      <c r="U132">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>0</v>
       </c>
@@ -7021,8 +9026,23 @@
       <c r="P133" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <v>0</v>
+      </c>
+      <c r="S133">
+        <v>0</v>
+      </c>
+      <c r="T133">
+        <v>3.8</v>
+      </c>
+      <c r="U133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>0</v>
       </c>
@@ -7071,8 +9091,23 @@
       <c r="P134" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="S134">
+        <v>0</v>
+      </c>
+      <c r="T134">
+        <v>0</v>
+      </c>
+      <c r="U134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>0</v>
       </c>
@@ -7121,8 +9156,23 @@
       <c r="P135" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135">
+        <v>5.8</v>
+      </c>
+      <c r="S135">
+        <v>5.4</v>
+      </c>
+      <c r="T135">
+        <v>1.4</v>
+      </c>
+      <c r="U135">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>0</v>
       </c>
@@ -7171,8 +9221,23 @@
       <c r="P136" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>0</v>
+      </c>
+      <c r="S136">
+        <v>0</v>
+      </c>
+      <c r="T136">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="U136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>0.2</v>
       </c>
@@ -7221,8 +9286,23 @@
       <c r="P137" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>0</v>
+      </c>
+      <c r="S137">
+        <v>0</v>
+      </c>
+      <c r="T137">
+        <v>0</v>
+      </c>
+      <c r="U137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>0.6</v>
       </c>
@@ -7271,8 +9351,23 @@
       <c r="P138" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>0</v>
+      </c>
+      <c r="S138">
+        <v>0</v>
+      </c>
+      <c r="T138">
+        <v>12.9</v>
+      </c>
+      <c r="U138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>0.5</v>
       </c>
@@ -7321,8 +9416,23 @@
       <c r="P139" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q139">
+        <v>1.6</v>
+      </c>
+      <c r="R139">
+        <v>0</v>
+      </c>
+      <c r="S139">
+        <v>4.2</v>
+      </c>
+      <c r="T139">
+        <v>5</v>
+      </c>
+      <c r="U139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>0</v>
       </c>
@@ -7371,8 +9481,23 @@
       <c r="P140" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q140">
+        <v>0.2</v>
+      </c>
+      <c r="R140">
+        <v>0</v>
+      </c>
+      <c r="S140">
+        <v>0</v>
+      </c>
+      <c r="T140">
+        <v>0.2</v>
+      </c>
+      <c r="U140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>11.8</v>
       </c>
@@ -7421,8 +9546,23 @@
       <c r="P141" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <v>0</v>
+      </c>
+      <c r="S141">
+        <v>1.8</v>
+      </c>
+      <c r="T141">
+        <v>1</v>
+      </c>
+      <c r="U141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>3.2</v>
       </c>
@@ -7471,8 +9611,23 @@
       <c r="P142" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="R142">
+        <v>7.5</v>
+      </c>
+      <c r="S142">
+        <v>0</v>
+      </c>
+      <c r="T142">
+        <v>0</v>
+      </c>
+      <c r="U142">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>3.3</v>
       </c>
@@ -7521,8 +9676,23 @@
       <c r="P143" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>2.4</v>
+      </c>
+      <c r="S143">
+        <v>0</v>
+      </c>
+      <c r="T143">
+        <v>0</v>
+      </c>
+      <c r="U143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>0</v>
       </c>
@@ -7571,8 +9741,23 @@
       <c r="P144" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>0</v>
+      </c>
+      <c r="S144">
+        <v>0</v>
+      </c>
+      <c r="T144">
+        <v>0</v>
+      </c>
+      <c r="U144">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>0</v>
       </c>
@@ -7621,8 +9806,23 @@
       <c r="P145" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <v>0</v>
+      </c>
+      <c r="S145">
+        <v>0</v>
+      </c>
+      <c r="T145">
+        <v>0</v>
+      </c>
+      <c r="U145">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>0</v>
       </c>
@@ -7671,8 +9871,23 @@
       <c r="P146" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q146">
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <v>0</v>
+      </c>
+      <c r="S146">
+        <v>0.2</v>
+      </c>
+      <c r="T146">
+        <v>0</v>
+      </c>
+      <c r="U146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>0</v>
       </c>
@@ -7721,8 +9936,23 @@
       <c r="P147" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <v>0</v>
+      </c>
+      <c r="S147">
+        <v>0.2</v>
+      </c>
+      <c r="T147">
+        <v>0</v>
+      </c>
+      <c r="U147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>0</v>
       </c>
@@ -7771,8 +10001,23 @@
       <c r="P148" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q148">
+        <v>0</v>
+      </c>
+      <c r="R148">
+        <v>0</v>
+      </c>
+      <c r="S148">
+        <v>0</v>
+      </c>
+      <c r="T148">
+        <v>0</v>
+      </c>
+      <c r="U148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>0</v>
       </c>
@@ -7821,8 +10066,23 @@
       <c r="P149" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <v>3.6</v>
+      </c>
+      <c r="S149">
+        <v>0</v>
+      </c>
+      <c r="T149">
+        <v>0</v>
+      </c>
+      <c r="U149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>0</v>
       </c>
@@ -7871,8 +10131,23 @@
       <c r="P150" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="R150">
+        <v>0</v>
+      </c>
+      <c r="S150">
+        <v>0</v>
+      </c>
+      <c r="T150">
+        <v>0.6</v>
+      </c>
+      <c r="U150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>0.2</v>
       </c>
@@ -7921,8 +10196,23 @@
       <c r="P151" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <v>0</v>
+      </c>
+      <c r="S151">
+        <v>0</v>
+      </c>
+      <c r="T151">
+        <v>0</v>
+      </c>
+      <c r="U151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>6.6</v>
       </c>
@@ -7971,8 +10261,23 @@
       <c r="P152" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="R152">
+        <v>0</v>
+      </c>
+      <c r="S152">
+        <v>0</v>
+      </c>
+      <c r="T152">
+        <v>0.4</v>
+      </c>
+      <c r="U152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>0.2</v>
       </c>
@@ -8021,8 +10326,23 @@
       <c r="P153" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <v>0</v>
+      </c>
+      <c r="S153">
+        <v>0</v>
+      </c>
+      <c r="T153">
+        <v>0</v>
+      </c>
+      <c r="U153">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>0.3</v>
       </c>
@@ -8071,8 +10391,23 @@
       <c r="P154" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q154">
+        <v>0</v>
+      </c>
+      <c r="R154">
+        <v>0</v>
+      </c>
+      <c r="S154">
+        <v>0</v>
+      </c>
+      <c r="T154">
+        <v>0</v>
+      </c>
+      <c r="U154">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>0</v>
       </c>
@@ -8121,8 +10456,23 @@
       <c r="P155" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q155">
+        <v>0</v>
+      </c>
+      <c r="R155">
+        <v>24.2</v>
+      </c>
+      <c r="S155">
+        <v>0</v>
+      </c>
+      <c r="T155">
+        <v>0</v>
+      </c>
+      <c r="U155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>0</v>
       </c>
@@ -8171,8 +10521,23 @@
       <c r="P156" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q156">
+        <v>0</v>
+      </c>
+      <c r="R156">
+        <v>6.9</v>
+      </c>
+      <c r="S156">
+        <v>0</v>
+      </c>
+      <c r="T156">
+        <v>25.5</v>
+      </c>
+      <c r="U156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>0</v>
       </c>
@@ -8221,8 +10586,23 @@
       <c r="P157" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>0</v>
+      </c>
+      <c r="S157">
+        <v>0</v>
+      </c>
+      <c r="T157">
+        <v>48.3</v>
+      </c>
+      <c r="U157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>0</v>
       </c>
@@ -8271,8 +10651,23 @@
       <c r="P158" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="R158">
+        <v>2.4</v>
+      </c>
+      <c r="S158">
+        <v>0</v>
+      </c>
+      <c r="T158">
+        <v>0</v>
+      </c>
+      <c r="U158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>0</v>
       </c>
@@ -8321,8 +10716,23 @@
       <c r="P159" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q159">
+        <v>0</v>
+      </c>
+      <c r="R159">
+        <v>1.2</v>
+      </c>
+      <c r="S159">
+        <v>0</v>
+      </c>
+      <c r="T159">
+        <v>1</v>
+      </c>
+      <c r="U159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>0</v>
       </c>
@@ -8371,8 +10781,23 @@
       <c r="P160" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q160">
+        <v>0</v>
+      </c>
+      <c r="R160">
+        <v>0</v>
+      </c>
+      <c r="S160">
+        <v>0.2</v>
+      </c>
+      <c r="T160">
+        <v>1.8</v>
+      </c>
+      <c r="U160">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>0</v>
       </c>
@@ -8421,8 +10846,23 @@
       <c r="P161" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q161">
+        <v>0</v>
+      </c>
+      <c r="R161">
+        <v>0</v>
+      </c>
+      <c r="S161">
+        <v>0.2</v>
+      </c>
+      <c r="T161">
+        <v>0</v>
+      </c>
+      <c r="U161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>0</v>
       </c>
@@ -8471,8 +10911,23 @@
       <c r="P162" s="1">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q162">
+        <v>0</v>
+      </c>
+      <c r="R162">
+        <v>1.8</v>
+      </c>
+      <c r="S162">
+        <v>0.8</v>
+      </c>
+      <c r="T162">
+        <v>0</v>
+      </c>
+      <c r="U162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>0</v>
       </c>
@@ -8521,8 +10976,23 @@
       <c r="P163" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q163">
+        <v>0</v>
+      </c>
+      <c r="R163">
+        <v>1.4</v>
+      </c>
+      <c r="S163">
+        <v>0</v>
+      </c>
+      <c r="T163">
+        <v>0.4</v>
+      </c>
+      <c r="U163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>0</v>
       </c>
@@ -8571,8 +11041,23 @@
       <c r="P164" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q164">
+        <v>0</v>
+      </c>
+      <c r="R164">
+        <v>0</v>
+      </c>
+      <c r="S164">
+        <v>0</v>
+      </c>
+      <c r="T164">
+        <v>0</v>
+      </c>
+      <c r="U164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>0</v>
       </c>
@@ -8621,8 +11106,23 @@
       <c r="P165" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q165">
+        <v>0</v>
+      </c>
+      <c r="R165">
+        <v>0</v>
+      </c>
+      <c r="S165">
+        <v>0</v>
+      </c>
+      <c r="T165">
+        <v>0</v>
+      </c>
+      <c r="U165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>0</v>
       </c>
@@ -8671,8 +11171,23 @@
       <c r="P166" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q166">
+        <v>0</v>
+      </c>
+      <c r="R166">
+        <v>0</v>
+      </c>
+      <c r="S166">
+        <v>0</v>
+      </c>
+      <c r="T166">
+        <v>9.4</v>
+      </c>
+      <c r="U166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>0</v>
       </c>
@@ -8721,8 +11236,23 @@
       <c r="P167" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q167">
+        <v>0</v>
+      </c>
+      <c r="R167">
+        <v>0</v>
+      </c>
+      <c r="S167">
+        <v>0</v>
+      </c>
+      <c r="T167">
+        <v>0</v>
+      </c>
+      <c r="U167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>0</v>
       </c>
@@ -8771,8 +11301,23 @@
       <c r="P168" s="1">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q168">
+        <v>0</v>
+      </c>
+      <c r="R168">
+        <v>0</v>
+      </c>
+      <c r="S168">
+        <v>0</v>
+      </c>
+      <c r="T168">
+        <v>0</v>
+      </c>
+      <c r="U168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>0</v>
       </c>
@@ -8821,8 +11366,23 @@
       <c r="P169" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="R169">
+        <v>0</v>
+      </c>
+      <c r="S169">
+        <v>0</v>
+      </c>
+      <c r="T169">
+        <v>0</v>
+      </c>
+      <c r="U169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>0</v>
       </c>
@@ -8871,8 +11431,23 @@
       <c r="P170" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q170">
+        <v>0</v>
+      </c>
+      <c r="R170">
+        <v>0</v>
+      </c>
+      <c r="S170">
+        <v>0</v>
+      </c>
+      <c r="T170">
+        <v>0</v>
+      </c>
+      <c r="U170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>0</v>
       </c>
@@ -8921,8 +11496,23 @@
       <c r="P171" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q171">
+        <v>0</v>
+      </c>
+      <c r="R171">
+        <v>0</v>
+      </c>
+      <c r="S171">
+        <v>0</v>
+      </c>
+      <c r="T171">
+        <v>0</v>
+      </c>
+      <c r="U171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>0</v>
       </c>
@@ -8971,8 +11561,23 @@
       <c r="P172" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q172">
+        <v>0</v>
+      </c>
+      <c r="R172">
+        <v>0</v>
+      </c>
+      <c r="S172">
+        <v>0</v>
+      </c>
+      <c r="T172">
+        <v>0</v>
+      </c>
+      <c r="U172">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>0</v>
       </c>
@@ -9021,8 +11626,23 @@
       <c r="P173" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q173">
+        <v>0</v>
+      </c>
+      <c r="R173">
+        <v>0</v>
+      </c>
+      <c r="S173">
+        <v>0</v>
+      </c>
+      <c r="T173">
+        <v>0</v>
+      </c>
+      <c r="U173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>0</v>
       </c>
@@ -9071,8 +11691,23 @@
       <c r="P174" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q174">
+        <v>0</v>
+      </c>
+      <c r="R174">
+        <v>4.8</v>
+      </c>
+      <c r="S174">
+        <v>0.4</v>
+      </c>
+      <c r="T174">
+        <v>0</v>
+      </c>
+      <c r="U174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>0</v>
       </c>
@@ -9121,8 +11756,23 @@
       <c r="P175" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q175">
+        <v>0</v>
+      </c>
+      <c r="R175">
+        <v>0</v>
+      </c>
+      <c r="S175">
+        <v>0</v>
+      </c>
+      <c r="T175">
+        <v>0</v>
+      </c>
+      <c r="U175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>0</v>
       </c>
@@ -9171,8 +11821,23 @@
       <c r="P176" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q176">
+        <v>0</v>
+      </c>
+      <c r="R176">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S176">
+        <v>0</v>
+      </c>
+      <c r="T176">
+        <v>0</v>
+      </c>
+      <c r="U176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>0</v>
       </c>
@@ -9221,8 +11886,23 @@
       <c r="P177" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="R177">
+        <v>0</v>
+      </c>
+      <c r="S177">
+        <v>0</v>
+      </c>
+      <c r="T177">
+        <v>0</v>
+      </c>
+      <c r="U177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>0</v>
       </c>
@@ -9271,8 +11951,23 @@
       <c r="P178" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q178">
+        <v>0</v>
+      </c>
+      <c r="R178">
+        <v>0</v>
+      </c>
+      <c r="S178">
+        <v>0</v>
+      </c>
+      <c r="T178">
+        <v>0</v>
+      </c>
+      <c r="U178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>0</v>
       </c>
@@ -9321,8 +12016,23 @@
       <c r="P179" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q179">
+        <v>0</v>
+      </c>
+      <c r="R179">
+        <v>2.8</v>
+      </c>
+      <c r="S179">
+        <v>0</v>
+      </c>
+      <c r="T179">
+        <v>0</v>
+      </c>
+      <c r="U179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>0</v>
       </c>
@@ -9371,8 +12081,23 @@
       <c r="P180" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q180">
+        <v>3.1</v>
+      </c>
+      <c r="R180">
+        <v>3.4</v>
+      </c>
+      <c r="S180">
+        <v>0</v>
+      </c>
+      <c r="T180">
+        <v>0</v>
+      </c>
+      <c r="U180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>0</v>
       </c>
@@ -9421,8 +12146,23 @@
       <c r="P181" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q181">
+        <v>0</v>
+      </c>
+      <c r="R181">
+        <v>0</v>
+      </c>
+      <c r="S181">
+        <v>0</v>
+      </c>
+      <c r="T181">
+        <v>0</v>
+      </c>
+      <c r="U181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>0</v>
       </c>
@@ -9471,8 +12211,23 @@
       <c r="P182" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q182">
+        <v>0</v>
+      </c>
+      <c r="R182">
+        <v>0</v>
+      </c>
+      <c r="S182">
+        <v>0</v>
+      </c>
+      <c r="T182">
+        <v>0</v>
+      </c>
+      <c r="U182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>0</v>
       </c>
@@ -9521,8 +12276,23 @@
       <c r="P183" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q183">
+        <v>0</v>
+      </c>
+      <c r="R183">
+        <v>0</v>
+      </c>
+      <c r="S183">
+        <v>0</v>
+      </c>
+      <c r="T183">
+        <v>0</v>
+      </c>
+      <c r="U183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>0</v>
       </c>
@@ -9571,8 +12341,23 @@
       <c r="P184" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q184">
+        <v>0</v>
+      </c>
+      <c r="R184">
+        <v>0</v>
+      </c>
+      <c r="S184">
+        <v>0</v>
+      </c>
+      <c r="T184">
+        <v>0</v>
+      </c>
+      <c r="U184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>0</v>
       </c>
@@ -9621,8 +12406,23 @@
       <c r="P185" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q185">
+        <v>0</v>
+      </c>
+      <c r="R185">
+        <v>0</v>
+      </c>
+      <c r="S185">
+        <v>0</v>
+      </c>
+      <c r="T185">
+        <v>0</v>
+      </c>
+      <c r="U185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>0</v>
       </c>
@@ -9671,8 +12471,23 @@
       <c r="P186" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q186">
+        <v>0</v>
+      </c>
+      <c r="R186">
+        <v>0</v>
+      </c>
+      <c r="S186">
+        <v>0</v>
+      </c>
+      <c r="T186">
+        <v>0.2</v>
+      </c>
+      <c r="U186">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>0</v>
       </c>
@@ -9721,8 +12536,23 @@
       <c r="P187" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q187">
+        <v>0</v>
+      </c>
+      <c r="R187">
+        <v>0</v>
+      </c>
+      <c r="S187">
+        <v>0</v>
+      </c>
+      <c r="T187">
+        <v>0</v>
+      </c>
+      <c r="U187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>0</v>
       </c>
@@ -9771,8 +12601,23 @@
       <c r="P188" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q188">
+        <v>0</v>
+      </c>
+      <c r="R188">
+        <v>0</v>
+      </c>
+      <c r="S188">
+        <v>0</v>
+      </c>
+      <c r="T188">
+        <v>0</v>
+      </c>
+      <c r="U188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>0</v>
       </c>
@@ -9821,8 +12666,23 @@
       <c r="P189" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q189">
+        <v>0</v>
+      </c>
+      <c r="R189">
+        <v>0</v>
+      </c>
+      <c r="S189">
+        <v>0</v>
+      </c>
+      <c r="T189">
+        <v>0</v>
+      </c>
+      <c r="U189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>0</v>
       </c>
@@ -9871,8 +12731,23 @@
       <c r="P190" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q190">
+        <v>0</v>
+      </c>
+      <c r="R190">
+        <v>0</v>
+      </c>
+      <c r="S190">
+        <v>0</v>
+      </c>
+      <c r="T190">
+        <v>0</v>
+      </c>
+      <c r="U190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>0</v>
       </c>
@@ -9921,8 +12796,23 @@
       <c r="P191" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q191">
+        <v>0</v>
+      </c>
+      <c r="R191">
+        <v>0</v>
+      </c>
+      <c r="S191">
+        <v>1.4</v>
+      </c>
+      <c r="T191">
+        <v>0</v>
+      </c>
+      <c r="U191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>0</v>
       </c>
@@ -9971,8 +12861,23 @@
       <c r="P192" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q192">
+        <v>0</v>
+      </c>
+      <c r="R192">
+        <v>0</v>
+      </c>
+      <c r="S192">
+        <v>0</v>
+      </c>
+      <c r="T192">
+        <v>0</v>
+      </c>
+      <c r="U192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>0</v>
       </c>
@@ -10021,8 +12926,23 @@
       <c r="P193" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q193">
+        <v>0</v>
+      </c>
+      <c r="R193">
+        <v>0</v>
+      </c>
+      <c r="S193">
+        <v>0</v>
+      </c>
+      <c r="T193">
+        <v>0</v>
+      </c>
+      <c r="U193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>0</v>
       </c>
@@ -10071,8 +12991,23 @@
       <c r="P194" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q194">
+        <v>0</v>
+      </c>
+      <c r="R194">
+        <v>0</v>
+      </c>
+      <c r="S194">
+        <v>0</v>
+      </c>
+      <c r="T194">
+        <v>0</v>
+      </c>
+      <c r="U194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>0</v>
       </c>
@@ -10121,8 +13056,23 @@
       <c r="P195" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q195">
+        <v>0</v>
+      </c>
+      <c r="R195">
+        <v>0</v>
+      </c>
+      <c r="S195">
+        <v>0</v>
+      </c>
+      <c r="T195">
+        <v>0</v>
+      </c>
+      <c r="U195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>0</v>
       </c>
@@ -10171,8 +13121,23 @@
       <c r="P196" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q196">
+        <v>0</v>
+      </c>
+      <c r="R196">
+        <v>0</v>
+      </c>
+      <c r="S196">
+        <v>0</v>
+      </c>
+      <c r="T196">
+        <v>0.2</v>
+      </c>
+      <c r="U196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>0</v>
       </c>
@@ -10221,8 +13186,23 @@
       <c r="P197" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q197">
+        <v>0</v>
+      </c>
+      <c r="R197">
+        <v>0</v>
+      </c>
+      <c r="S197">
+        <v>4.2</v>
+      </c>
+      <c r="T197">
+        <v>0.2</v>
+      </c>
+      <c r="U197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>0</v>
       </c>
@@ -10271,8 +13251,23 @@
       <c r="P198" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q198">
+        <v>0</v>
+      </c>
+      <c r="R198">
+        <v>21.3</v>
+      </c>
+      <c r="S198">
+        <v>0</v>
+      </c>
+      <c r="T198">
+        <v>0.6</v>
+      </c>
+      <c r="U198">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>0</v>
       </c>
@@ -10321,8 +13316,23 @@
       <c r="P199" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q199">
+        <v>0</v>
+      </c>
+      <c r="R199">
+        <v>0</v>
+      </c>
+      <c r="S199">
+        <v>0</v>
+      </c>
+      <c r="T199">
+        <v>0</v>
+      </c>
+      <c r="U199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -10371,8 +13381,23 @@
       <c r="P200" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q200">
+        <v>0</v>
+      </c>
+      <c r="R200">
+        <v>0</v>
+      </c>
+      <c r="S200">
+        <v>0</v>
+      </c>
+      <c r="T200">
+        <v>0</v>
+      </c>
+      <c r="U200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>6.6</v>
       </c>
@@ -10421,8 +13446,23 @@
       <c r="P201" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q201">
+        <v>0</v>
+      </c>
+      <c r="R201">
+        <v>0</v>
+      </c>
+      <c r="S201">
+        <v>0</v>
+      </c>
+      <c r="T201">
+        <v>1.4</v>
+      </c>
+      <c r="U201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>6.6</v>
       </c>
@@ -10471,8 +13511,23 @@
       <c r="P202" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q202">
+        <v>0</v>
+      </c>
+      <c r="R202">
+        <v>0</v>
+      </c>
+      <c r="S202">
+        <v>0</v>
+      </c>
+      <c r="T202">
+        <v>0</v>
+      </c>
+      <c r="U202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>0</v>
       </c>
@@ -10521,8 +13576,23 @@
       <c r="P203" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q203">
+        <v>0</v>
+      </c>
+      <c r="R203">
+        <v>0</v>
+      </c>
+      <c r="S203">
+        <v>0</v>
+      </c>
+      <c r="T203">
+        <v>0</v>
+      </c>
+      <c r="U203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>0</v>
       </c>
@@ -10571,8 +13641,23 @@
       <c r="P204" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q204">
+        <v>0</v>
+      </c>
+      <c r="R204">
+        <v>0</v>
+      </c>
+      <c r="S204">
+        <v>0</v>
+      </c>
+      <c r="T204">
+        <v>0</v>
+      </c>
+      <c r="U204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>0</v>
       </c>
@@ -10621,8 +13706,23 @@
       <c r="P205" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q205">
+        <v>0</v>
+      </c>
+      <c r="R205">
+        <v>0</v>
+      </c>
+      <c r="S205">
+        <v>0</v>
+      </c>
+      <c r="T205">
+        <v>0</v>
+      </c>
+      <c r="U205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>0</v>
       </c>
@@ -10671,8 +13771,23 @@
       <c r="P206" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q206">
+        <v>0</v>
+      </c>
+      <c r="R206">
+        <v>0</v>
+      </c>
+      <c r="S206">
+        <v>0</v>
+      </c>
+      <c r="T206">
+        <v>0</v>
+      </c>
+      <c r="U206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>0</v>
       </c>
@@ -10721,8 +13836,23 @@
       <c r="P207" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q207">
+        <v>0</v>
+      </c>
+      <c r="R207">
+        <v>0</v>
+      </c>
+      <c r="S207">
+        <v>0</v>
+      </c>
+      <c r="T207">
+        <v>0</v>
+      </c>
+      <c r="U207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>0</v>
       </c>
@@ -10771,8 +13901,23 @@
       <c r="P208" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q208">
+        <v>0</v>
+      </c>
+      <c r="R208">
+        <v>0.2</v>
+      </c>
+      <c r="S208">
+        <v>0</v>
+      </c>
+      <c r="T208">
+        <v>0</v>
+      </c>
+      <c r="U208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>0</v>
       </c>
@@ -10821,8 +13966,23 @@
       <c r="P209" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q209">
+        <v>0</v>
+      </c>
+      <c r="R209">
+        <v>0</v>
+      </c>
+      <c r="S209">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="T209">
+        <v>0</v>
+      </c>
+      <c r="U209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>0</v>
       </c>
@@ -10871,8 +14031,23 @@
       <c r="P210" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q210">
+        <v>0</v>
+      </c>
+      <c r="R210">
+        <v>0</v>
+      </c>
+      <c r="S210">
+        <v>0</v>
+      </c>
+      <c r="T210">
+        <v>0</v>
+      </c>
+      <c r="U210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>0</v>
       </c>
@@ -10921,8 +14096,23 @@
       <c r="P211" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q211">
+        <v>0</v>
+      </c>
+      <c r="R211">
+        <v>0</v>
+      </c>
+      <c r="S211">
+        <v>0</v>
+      </c>
+      <c r="T211">
+        <v>0</v>
+      </c>
+      <c r="U211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>0</v>
       </c>
@@ -10971,8 +14161,23 @@
       <c r="P212" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q212">
+        <v>0</v>
+      </c>
+      <c r="R212">
+        <v>0</v>
+      </c>
+      <c r="S212">
+        <v>0</v>
+      </c>
+      <c r="T212">
+        <v>0</v>
+      </c>
+      <c r="U212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>0</v>
       </c>
@@ -11021,8 +14226,23 @@
       <c r="P213" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q213">
+        <v>0</v>
+      </c>
+      <c r="R213">
+        <v>0</v>
+      </c>
+      <c r="S213">
+        <v>0</v>
+      </c>
+      <c r="T213">
+        <v>0</v>
+      </c>
+      <c r="U213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>0</v>
       </c>
@@ -11071,8 +14291,23 @@
       <c r="P214" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q214">
+        <v>0</v>
+      </c>
+      <c r="R214">
+        <v>0</v>
+      </c>
+      <c r="S214">
+        <v>0</v>
+      </c>
+      <c r="T214">
+        <v>0</v>
+      </c>
+      <c r="U214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>0</v>
       </c>
@@ -11121,8 +14356,23 @@
       <c r="P215" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="R215">
+        <v>0</v>
+      </c>
+      <c r="S215">
+        <v>0</v>
+      </c>
+      <c r="T215">
+        <v>0</v>
+      </c>
+      <c r="U215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>0</v>
       </c>
@@ -11171,8 +14421,23 @@
       <c r="P216" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q216">
+        <v>0</v>
+      </c>
+      <c r="R216">
+        <v>0</v>
+      </c>
+      <c r="S216">
+        <v>0</v>
+      </c>
+      <c r="T216">
+        <v>0</v>
+      </c>
+      <c r="U216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>0</v>
       </c>
@@ -11221,8 +14486,23 @@
       <c r="P217" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q217">
+        <v>0</v>
+      </c>
+      <c r="R217">
+        <v>0</v>
+      </c>
+      <c r="S217">
+        <v>0</v>
+      </c>
+      <c r="T217">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U217">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>0</v>
       </c>
@@ -11271,8 +14551,23 @@
       <c r="P218" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q218">
+        <v>0.2</v>
+      </c>
+      <c r="R218">
+        <v>0</v>
+      </c>
+      <c r="S218">
+        <v>0</v>
+      </c>
+      <c r="T218">
+        <v>0</v>
+      </c>
+      <c r="U218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>0</v>
       </c>
@@ -11321,8 +14616,23 @@
       <c r="P219" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q219">
+        <v>0.6</v>
+      </c>
+      <c r="R219">
+        <v>0</v>
+      </c>
+      <c r="S219">
+        <v>0</v>
+      </c>
+      <c r="T219">
+        <v>0</v>
+      </c>
+      <c r="U219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>0</v>
       </c>
@@ -11371,8 +14681,23 @@
       <c r="P220" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q220">
+        <v>0</v>
+      </c>
+      <c r="R220">
+        <v>0</v>
+      </c>
+      <c r="S220">
+        <v>0</v>
+      </c>
+      <c r="T220">
+        <v>0</v>
+      </c>
+      <c r="U220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>0</v>
       </c>
@@ -11421,8 +14746,23 @@
       <c r="P221" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q221">
+        <v>0</v>
+      </c>
+      <c r="R221">
+        <v>0</v>
+      </c>
+      <c r="S221">
+        <v>0</v>
+      </c>
+      <c r="T221">
+        <v>0</v>
+      </c>
+      <c r="U221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>0</v>
       </c>
@@ -11471,8 +14811,23 @@
       <c r="P222" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>3.2</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>0.2</v>
       </c>
@@ -11521,8 +14876,23 @@
       <c r="P223" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>0.3</v>
       </c>
@@ -11571,8 +14941,23 @@
       <c r="P224" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>1.4</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>0</v>
       </c>
@@ -11621,8 +15006,23 @@
       <c r="P225" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0.2</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>0</v>
       </c>
@@ -11671,8 +15071,23 @@
       <c r="P226" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>0</v>
       </c>
@@ -11721,8 +15136,23 @@
       <c r="P227" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0.2</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>0</v>
       </c>
@@ -11771,8 +15201,23 @@
       <c r="P228" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>0</v>
       </c>
@@ -11821,8 +15266,23 @@
       <c r="P229" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>0</v>
       </c>
@@ -11871,8 +15331,23 @@
       <c r="P230" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>0</v>
       </c>
@@ -11921,8 +15396,23 @@
       <c r="P231" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>0</v>
       </c>
@@ -11971,8 +15461,23 @@
       <c r="P232" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>0</v>
       </c>
@@ -12021,8 +15526,23 @@
       <c r="P233" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>0</v>
       </c>
@@ -12071,8 +15591,23 @@
       <c r="P234" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q234">
+        <v>0</v>
+      </c>
+      <c r="R234">
+        <v>0</v>
+      </c>
+      <c r="S234">
+        <v>0</v>
+      </c>
+      <c r="T234">
+        <v>0</v>
+      </c>
+      <c r="U234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>0</v>
       </c>
@@ -12121,8 +15656,23 @@
       <c r="P235" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q235">
+        <v>0</v>
+      </c>
+      <c r="R235">
+        <v>0</v>
+      </c>
+      <c r="S235">
+        <v>0</v>
+      </c>
+      <c r="T235">
+        <v>0</v>
+      </c>
+      <c r="U235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>0</v>
       </c>
@@ -12171,8 +15721,23 @@
       <c r="P236" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q236">
+        <v>0</v>
+      </c>
+      <c r="R236">
+        <v>0</v>
+      </c>
+      <c r="S236">
+        <v>0</v>
+      </c>
+      <c r="T236">
+        <v>0</v>
+      </c>
+      <c r="U236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>0</v>
       </c>
@@ -12221,8 +15786,23 @@
       <c r="P237" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q237">
+        <v>0</v>
+      </c>
+      <c r="R237">
+        <v>0</v>
+      </c>
+      <c r="S237">
+        <v>0</v>
+      </c>
+      <c r="T237">
+        <v>0</v>
+      </c>
+      <c r="U237">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>0</v>
       </c>
@@ -12271,8 +15851,23 @@
       <c r="P238" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q238">
+        <v>0</v>
+      </c>
+      <c r="R238">
+        <v>0</v>
+      </c>
+      <c r="S238">
+        <v>0</v>
+      </c>
+      <c r="T238">
+        <v>0</v>
+      </c>
+      <c r="U238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>0</v>
       </c>
@@ -12321,8 +15916,23 @@
       <c r="P239" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q239">
+        <v>0</v>
+      </c>
+      <c r="R239">
+        <v>0</v>
+      </c>
+      <c r="S239">
+        <v>0</v>
+      </c>
+      <c r="T239">
+        <v>0</v>
+      </c>
+      <c r="U239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>0</v>
       </c>
@@ -12371,8 +15981,23 @@
       <c r="P240" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q240">
+        <v>0</v>
+      </c>
+      <c r="R240">
+        <v>0</v>
+      </c>
+      <c r="S240">
+        <v>0.4</v>
+      </c>
+      <c r="T240">
+        <v>0</v>
+      </c>
+      <c r="U240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>0</v>
       </c>
@@ -12421,8 +16046,23 @@
       <c r="P241" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q241">
+        <v>0</v>
+      </c>
+      <c r="R241">
+        <v>0</v>
+      </c>
+      <c r="S241">
+        <v>0</v>
+      </c>
+      <c r="T241">
+        <v>0</v>
+      </c>
+      <c r="U241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>0</v>
       </c>
@@ -12471,8 +16111,23 @@
       <c r="P242" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q242">
+        <v>0</v>
+      </c>
+      <c r="R242">
+        <v>0</v>
+      </c>
+      <c r="S242">
+        <v>0</v>
+      </c>
+      <c r="T242">
+        <v>0</v>
+      </c>
+      <c r="U242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>0</v>
       </c>
@@ -12521,8 +16176,23 @@
       <c r="P243" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q243">
+        <v>0</v>
+      </c>
+      <c r="R243">
+        <v>0</v>
+      </c>
+      <c r="S243">
+        <v>0</v>
+      </c>
+      <c r="T243">
+        <v>3.6</v>
+      </c>
+      <c r="U243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>0</v>
       </c>
@@ -12571,8 +16241,23 @@
       <c r="P244" s="1">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q244">
+        <v>0</v>
+      </c>
+      <c r="R244">
+        <v>0</v>
+      </c>
+      <c r="S244">
+        <v>0</v>
+      </c>
+      <c r="T244">
+        <v>0</v>
+      </c>
+      <c r="U244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>0</v>
       </c>
@@ -12621,8 +16306,23 @@
       <c r="P245" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q245">
+        <v>0</v>
+      </c>
+      <c r="R245">
+        <v>6.5</v>
+      </c>
+      <c r="S245">
+        <v>0</v>
+      </c>
+      <c r="T245">
+        <v>0.2</v>
+      </c>
+      <c r="U245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>0</v>
       </c>
@@ -12671,8 +16371,23 @@
       <c r="P246" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q246">
+        <v>2</v>
+      </c>
+      <c r="R246">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S246">
+        <v>0</v>
+      </c>
+      <c r="T246">
+        <v>0</v>
+      </c>
+      <c r="U246">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>0.2</v>
       </c>
@@ -12721,8 +16436,23 @@
       <c r="P247" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q247">
+        <v>0</v>
+      </c>
+      <c r="R247">
+        <v>0.2</v>
+      </c>
+      <c r="S247">
+        <v>0</v>
+      </c>
+      <c r="T247">
+        <v>0</v>
+      </c>
+      <c r="U247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>0.3</v>
       </c>
@@ -12771,8 +16501,23 @@
       <c r="P248" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q248">
+        <v>0</v>
+      </c>
+      <c r="R248">
+        <v>0</v>
+      </c>
+      <c r="S248">
+        <v>0</v>
+      </c>
+      <c r="T248">
+        <v>0</v>
+      </c>
+      <c r="U248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>0</v>
       </c>
@@ -12821,8 +16566,23 @@
       <c r="P249" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q249">
+        <v>0</v>
+      </c>
+      <c r="R249">
+        <v>0</v>
+      </c>
+      <c r="S249">
+        <v>0</v>
+      </c>
+      <c r="T249">
+        <v>0</v>
+      </c>
+      <c r="U249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>0</v>
       </c>
@@ -12871,8 +16631,23 @@
       <c r="P250" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q250">
+        <v>0</v>
+      </c>
+      <c r="R250">
+        <v>0.4</v>
+      </c>
+      <c r="S250">
+        <v>1.2</v>
+      </c>
+      <c r="T250">
+        <v>0</v>
+      </c>
+      <c r="U250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>0</v>
       </c>
@@ -12921,8 +16696,23 @@
       <c r="P251" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q251">
+        <v>0</v>
+      </c>
+      <c r="R251">
+        <v>0</v>
+      </c>
+      <c r="S251">
+        <v>0</v>
+      </c>
+      <c r="T251">
+        <v>0</v>
+      </c>
+      <c r="U251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>0</v>
       </c>
@@ -12971,8 +16761,23 @@
       <c r="P252" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q252">
+        <v>0</v>
+      </c>
+      <c r="R252">
+        <v>0</v>
+      </c>
+      <c r="S252">
+        <v>0</v>
+      </c>
+      <c r="T252">
+        <v>0</v>
+      </c>
+      <c r="U252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>0</v>
       </c>
@@ -13021,8 +16826,23 @@
       <c r="P253" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q253">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="R253">
+        <v>0</v>
+      </c>
+      <c r="S253">
+        <v>0</v>
+      </c>
+      <c r="T253">
+        <v>0</v>
+      </c>
+      <c r="U253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>0</v>
       </c>
@@ -13071,8 +16891,23 @@
       <c r="P254" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q254">
+        <v>0</v>
+      </c>
+      <c r="R254">
+        <v>0</v>
+      </c>
+      <c r="S254">
+        <v>23.8</v>
+      </c>
+      <c r="T254">
+        <v>0.2</v>
+      </c>
+      <c r="U254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>0</v>
       </c>
@@ -13121,8 +16956,23 @@
       <c r="P255" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q255">
+        <v>0</v>
+      </c>
+      <c r="R255">
+        <v>0</v>
+      </c>
+      <c r="S255">
+        <v>0</v>
+      </c>
+      <c r="T255">
+        <v>0</v>
+      </c>
+      <c r="U255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>0</v>
       </c>
@@ -13171,8 +17021,23 @@
       <c r="P256" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q256">
+        <v>0</v>
+      </c>
+      <c r="R256">
+        <v>1.4</v>
+      </c>
+      <c r="S256">
+        <v>0</v>
+      </c>
+      <c r="T256">
+        <v>2</v>
+      </c>
+      <c r="U256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>0</v>
       </c>
@@ -13221,8 +17086,23 @@
       <c r="P257" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q257">
+        <v>0</v>
+      </c>
+      <c r="R257">
+        <v>0.4</v>
+      </c>
+      <c r="S257">
+        <v>0</v>
+      </c>
+      <c r="T257">
+        <v>0</v>
+      </c>
+      <c r="U257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>0.4</v>
       </c>
@@ -13271,8 +17151,23 @@
       <c r="P258" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q258">
+        <v>0</v>
+      </c>
+      <c r="R258">
+        <v>0</v>
+      </c>
+      <c r="S258">
+        <v>0</v>
+      </c>
+      <c r="T258">
+        <v>0</v>
+      </c>
+      <c r="U258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>0.5</v>
       </c>
@@ -13321,8 +17216,23 @@
       <c r="P259" s="1">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q259">
+        <v>1.2</v>
+      </c>
+      <c r="R259">
+        <v>0</v>
+      </c>
+      <c r="S259">
+        <v>0</v>
+      </c>
+      <c r="T259">
+        <v>0</v>
+      </c>
+      <c r="U259">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>0</v>
       </c>
@@ -13371,8 +17281,23 @@
       <c r="P260" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q260">
+        <v>0</v>
+      </c>
+      <c r="R260">
+        <v>0</v>
+      </c>
+      <c r="S260">
+        <v>0</v>
+      </c>
+      <c r="T260">
+        <v>0</v>
+      </c>
+      <c r="U260">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>2.4</v>
       </c>
@@ -13421,8 +17346,23 @@
       <c r="P261" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q261">
+        <v>0</v>
+      </c>
+      <c r="R261">
+        <v>0</v>
+      </c>
+      <c r="S261">
+        <v>0</v>
+      </c>
+      <c r="T261">
+        <v>0</v>
+      </c>
+      <c r="U261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -13471,8 +17411,23 @@
       <c r="P262" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q262">
+        <v>0</v>
+      </c>
+      <c r="R262">
+        <v>0</v>
+      </c>
+      <c r="S262">
+        <v>0</v>
+      </c>
+      <c r="T262">
+        <v>0</v>
+      </c>
+      <c r="U262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>0</v>
       </c>
@@ -13521,8 +17476,23 @@
       <c r="P263" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q263">
+        <v>0.6</v>
+      </c>
+      <c r="R263">
+        <v>0</v>
+      </c>
+      <c r="S263">
+        <v>0</v>
+      </c>
+      <c r="T263">
+        <v>0</v>
+      </c>
+      <c r="U263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>0</v>
       </c>
@@ -13571,8 +17541,23 @@
       <c r="P264" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q264">
+        <v>0</v>
+      </c>
+      <c r="R264">
+        <v>0</v>
+      </c>
+      <c r="S264">
+        <v>0</v>
+      </c>
+      <c r="T264">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="U264">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>0</v>
       </c>
@@ -13621,8 +17606,23 @@
       <c r="P265" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q265">
+        <v>0</v>
+      </c>
+      <c r="R265">
+        <v>0</v>
+      </c>
+      <c r="S265">
+        <v>11.9</v>
+      </c>
+      <c r="T265">
+        <v>27.9</v>
+      </c>
+      <c r="U265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>10.8</v>
       </c>
@@ -13671,8 +17671,23 @@
       <c r="P266" s="1">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q266">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="R266">
+        <v>0</v>
+      </c>
+      <c r="S266">
+        <v>21.5</v>
+      </c>
+      <c r="T266">
+        <v>0</v>
+      </c>
+      <c r="U266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>5.2</v>
       </c>
@@ -13721,8 +17736,23 @@
       <c r="P267" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q267">
+        <v>0.9</v>
+      </c>
+      <c r="R267">
+        <v>0</v>
+      </c>
+      <c r="S267">
+        <v>0</v>
+      </c>
+      <c r="T267">
+        <v>6.4</v>
+      </c>
+      <c r="U267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>0.8</v>
       </c>
@@ -13771,8 +17801,23 @@
       <c r="P268" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q268">
+        <v>0</v>
+      </c>
+      <c r="R268">
+        <v>0</v>
+      </c>
+      <c r="S268">
+        <v>0</v>
+      </c>
+      <c r="T268">
+        <v>0</v>
+      </c>
+      <c r="U268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>0.2</v>
       </c>
@@ -13821,8 +17866,23 @@
       <c r="P269" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q269">
+        <v>0</v>
+      </c>
+      <c r="R269">
+        <v>0</v>
+      </c>
+      <c r="S269">
+        <v>0</v>
+      </c>
+      <c r="T269">
+        <v>22.5</v>
+      </c>
+      <c r="U269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>0</v>
       </c>
@@ -13871,8 +17931,23 @@
       <c r="P270" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q270">
+        <v>0</v>
+      </c>
+      <c r="R270">
+        <v>0</v>
+      </c>
+      <c r="S270">
+        <v>0</v>
+      </c>
+      <c r="T270">
+        <v>0</v>
+      </c>
+      <c r="U270">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>0</v>
       </c>
@@ -13921,8 +17996,23 @@
       <c r="P271" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q271">
+        <v>0</v>
+      </c>
+      <c r="R271">
+        <v>0</v>
+      </c>
+      <c r="S271">
+        <v>0</v>
+      </c>
+      <c r="T271">
+        <v>0</v>
+      </c>
+      <c r="U271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>0</v>
       </c>
@@ -13971,8 +18061,23 @@
       <c r="P272" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q272">
+        <v>0</v>
+      </c>
+      <c r="R272">
+        <v>0</v>
+      </c>
+      <c r="S272">
+        <v>0</v>
+      </c>
+      <c r="T272">
+        <v>0</v>
+      </c>
+      <c r="U272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>1</v>
       </c>
@@ -14021,8 +18126,23 @@
       <c r="P273" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q273">
+        <v>0</v>
+      </c>
+      <c r="R273">
+        <v>0</v>
+      </c>
+      <c r="S273">
+        <v>0</v>
+      </c>
+      <c r="T273">
+        <v>0</v>
+      </c>
+      <c r="U273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>0</v>
       </c>
@@ -14071,8 +18191,23 @@
       <c r="P274" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q274">
+        <v>0</v>
+      </c>
+      <c r="R274">
+        <v>0</v>
+      </c>
+      <c r="S274">
+        <v>0</v>
+      </c>
+      <c r="T274">
+        <v>0</v>
+      </c>
+      <c r="U274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>0</v>
       </c>
@@ -14121,8 +18256,23 @@
       <c r="P275" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q275">
+        <v>0</v>
+      </c>
+      <c r="R275">
+        <v>2.4</v>
+      </c>
+      <c r="S275">
+        <v>2</v>
+      </c>
+      <c r="T275">
+        <v>0</v>
+      </c>
+      <c r="U275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>0</v>
       </c>
@@ -14171,8 +18321,23 @@
       <c r="P276" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q276">
+        <v>0</v>
+      </c>
+      <c r="R276">
+        <v>0</v>
+      </c>
+      <c r="S276">
+        <v>0</v>
+      </c>
+      <c r="T276">
+        <v>8.1</v>
+      </c>
+      <c r="U276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>0</v>
       </c>
@@ -14221,8 +18386,23 @@
       <c r="P277" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q277">
+        <v>0</v>
+      </c>
+      <c r="R277">
+        <v>0</v>
+      </c>
+      <c r="S277">
+        <v>0</v>
+      </c>
+      <c r="T277">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="U277">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>0</v>
       </c>
@@ -14271,8 +18451,23 @@
       <c r="P278" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q278">
+        <v>0</v>
+      </c>
+      <c r="R278">
+        <v>0</v>
+      </c>
+      <c r="S278">
+        <v>0</v>
+      </c>
+      <c r="T278">
+        <v>0</v>
+      </c>
+      <c r="U278">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>0</v>
       </c>
@@ -14321,8 +18516,23 @@
       <c r="P279" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q279">
+        <v>0</v>
+      </c>
+      <c r="R279">
+        <v>0</v>
+      </c>
+      <c r="S279">
+        <v>0</v>
+      </c>
+      <c r="T279">
+        <v>16.7</v>
+      </c>
+      <c r="U279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>1.8</v>
       </c>
@@ -14371,8 +18581,23 @@
       <c r="P280" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q280">
+        <v>0.2</v>
+      </c>
+      <c r="R280">
+        <v>0</v>
+      </c>
+      <c r="S280">
+        <v>0</v>
+      </c>
+      <c r="T280">
+        <v>0</v>
+      </c>
+      <c r="U280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -14421,8 +18646,23 @@
       <c r="P281" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q281">
+        <v>0</v>
+      </c>
+      <c r="R281">
+        <v>12.9</v>
+      </c>
+      <c r="S281">
+        <v>0</v>
+      </c>
+      <c r="T281">
+        <v>0</v>
+      </c>
+      <c r="U281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>0</v>
       </c>
@@ -14471,8 +18711,23 @@
       <c r="P282" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q282">
+        <v>0</v>
+      </c>
+      <c r="R282">
+        <v>0</v>
+      </c>
+      <c r="S282">
+        <v>0</v>
+      </c>
+      <c r="T282">
+        <v>0</v>
+      </c>
+      <c r="U282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>3.6</v>
       </c>
@@ -14521,8 +18776,23 @@
       <c r="P283" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q283">
+        <v>0</v>
+      </c>
+      <c r="R283">
+        <v>0</v>
+      </c>
+      <c r="S283">
+        <v>0</v>
+      </c>
+      <c r="T283">
+        <v>0</v>
+      </c>
+      <c r="U283">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>3.6</v>
       </c>
@@ -14571,8 +18841,23 @@
       <c r="P284" s="1">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q284">
+        <v>0</v>
+      </c>
+      <c r="R284">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="S284">
+        <v>0</v>
+      </c>
+      <c r="T284">
+        <v>0</v>
+      </c>
+      <c r="U284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>0</v>
       </c>
@@ -14621,8 +18906,23 @@
       <c r="P285" s="1">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q285">
+        <v>0</v>
+      </c>
+      <c r="R285">
+        <v>3</v>
+      </c>
+      <c r="S285">
+        <v>0</v>
+      </c>
+      <c r="T285">
+        <v>28.2</v>
+      </c>
+      <c r="U285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>0</v>
       </c>
@@ -14671,8 +18971,23 @@
       <c r="P286" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q286">
+        <v>0</v>
+      </c>
+      <c r="R286">
+        <v>0</v>
+      </c>
+      <c r="S286">
+        <v>0</v>
+      </c>
+      <c r="T286">
+        <v>13.7</v>
+      </c>
+      <c r="U286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>0</v>
       </c>
@@ -14721,8 +19036,23 @@
       <c r="P287" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q287">
+        <v>0</v>
+      </c>
+      <c r="R287">
+        <v>0</v>
+      </c>
+      <c r="S287">
+        <v>0</v>
+      </c>
+      <c r="T287">
+        <v>0</v>
+      </c>
+      <c r="U287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>0</v>
       </c>
@@ -14771,8 +19101,23 @@
       <c r="P288" s="1">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q288">
+        <v>0</v>
+      </c>
+      <c r="R288">
+        <v>0</v>
+      </c>
+      <c r="S288">
+        <v>16.2</v>
+      </c>
+      <c r="T288">
+        <v>0</v>
+      </c>
+      <c r="U288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>0</v>
       </c>
@@ -14821,8 +19166,23 @@
       <c r="P289" s="1">
         <v>43.7</v>
       </c>
-    </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q289">
+        <v>0</v>
+      </c>
+      <c r="R289">
+        <v>0</v>
+      </c>
+      <c r="S289">
+        <v>12.9</v>
+      </c>
+      <c r="T289">
+        <v>10.9</v>
+      </c>
+      <c r="U289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>0</v>
       </c>
@@ -14871,8 +19231,23 @@
       <c r="P290" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q290">
+        <v>0</v>
+      </c>
+      <c r="R290">
+        <v>3.8</v>
+      </c>
+      <c r="S290">
+        <v>2.8</v>
+      </c>
+      <c r="T290">
+        <v>0</v>
+      </c>
+      <c r="U290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>0</v>
       </c>
@@ -14921,8 +19296,23 @@
       <c r="P291" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q291">
+        <v>0</v>
+      </c>
+      <c r="R291">
+        <v>0.2</v>
+      </c>
+      <c r="S291">
+        <v>0</v>
+      </c>
+      <c r="T291">
+        <v>0</v>
+      </c>
+      <c r="U291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>0</v>
       </c>
@@ -14971,8 +19361,23 @@
       <c r="P292" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q292">
+        <v>0</v>
+      </c>
+      <c r="R292">
+        <v>0</v>
+      </c>
+      <c r="S292">
+        <v>10.9</v>
+      </c>
+      <c r="T292">
+        <v>0</v>
+      </c>
+      <c r="U292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>0</v>
       </c>
@@ -15021,8 +19426,23 @@
       <c r="P293" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q293">
+        <v>0</v>
+      </c>
+      <c r="R293">
+        <v>0</v>
+      </c>
+      <c r="S293">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T293">
+        <v>0</v>
+      </c>
+      <c r="U293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>16.600000000000001</v>
       </c>
@@ -15071,8 +19491,23 @@
       <c r="P294" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q294">
+        <v>0</v>
+      </c>
+      <c r="R294">
+        <v>0</v>
+      </c>
+      <c r="S294">
+        <v>13.2</v>
+      </c>
+      <c r="T294">
+        <v>0</v>
+      </c>
+      <c r="U294">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>16.5</v>
       </c>
@@ -15121,8 +19556,23 @@
       <c r="P295" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q295">
+        <v>0</v>
+      </c>
+      <c r="R295">
+        <v>0</v>
+      </c>
+      <c r="S295">
+        <v>3.4</v>
+      </c>
+      <c r="T295">
+        <v>0</v>
+      </c>
+      <c r="U295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>0</v>
       </c>
@@ -15171,8 +19621,23 @@
       <c r="P296" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q296">
+        <v>0</v>
+      </c>
+      <c r="R296">
+        <v>0</v>
+      </c>
+      <c r="S296">
+        <v>0</v>
+      </c>
+      <c r="T296">
+        <v>0</v>
+      </c>
+      <c r="U296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>0.8</v>
       </c>
@@ -15221,8 +19686,23 @@
       <c r="P297" s="1">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q297">
+        <v>0</v>
+      </c>
+      <c r="R297">
+        <v>0</v>
+      </c>
+      <c r="S297">
+        <v>27.2</v>
+      </c>
+      <c r="T297">
+        <v>0.2</v>
+      </c>
+      <c r="U297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>0.8</v>
       </c>
@@ -15271,8 +19751,23 @@
       <c r="P298" s="1">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q298">
+        <v>0</v>
+      </c>
+      <c r="R298">
+        <v>0</v>
+      </c>
+      <c r="S298">
+        <v>18</v>
+      </c>
+      <c r="T298">
+        <v>3.8</v>
+      </c>
+      <c r="U298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>0</v>
       </c>
@@ -15321,8 +19816,23 @@
       <c r="P299" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q299">
+        <v>0</v>
+      </c>
+      <c r="R299">
+        <v>0</v>
+      </c>
+      <c r="S299">
+        <v>0</v>
+      </c>
+      <c r="T299">
+        <v>0</v>
+      </c>
+      <c r="U299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>0</v>
       </c>
@@ -15371,8 +19881,23 @@
       <c r="P300" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q300">
+        <v>0</v>
+      </c>
+      <c r="R300">
+        <v>2.4</v>
+      </c>
+      <c r="S300">
+        <v>0</v>
+      </c>
+      <c r="T300">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>0</v>
       </c>
@@ -15421,8 +19946,23 @@
       <c r="P301" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q301">
+        <v>0</v>
+      </c>
+      <c r="R301">
+        <v>31.4</v>
+      </c>
+      <c r="S301">
+        <v>0</v>
+      </c>
+      <c r="T301">
+        <v>3.6</v>
+      </c>
+      <c r="U301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>0</v>
       </c>
@@ -15471,8 +20011,23 @@
       <c r="P302" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q302">
+        <v>0</v>
+      </c>
+      <c r="R302">
+        <v>5.6</v>
+      </c>
+      <c r="S302">
+        <v>0</v>
+      </c>
+      <c r="T302">
+        <v>0</v>
+      </c>
+      <c r="U302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>0</v>
       </c>
@@ -15521,8 +20076,23 @@
       <c r="P303" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q303">
+        <v>0</v>
+      </c>
+      <c r="R303">
+        <v>29.6</v>
+      </c>
+      <c r="S303">
+        <v>0</v>
+      </c>
+      <c r="T303">
+        <v>0</v>
+      </c>
+      <c r="U303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>0</v>
       </c>
@@ -15571,8 +20141,23 @@
       <c r="P304" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q304">
+        <v>0</v>
+      </c>
+      <c r="R304">
+        <v>1.2</v>
+      </c>
+      <c r="S304">
+        <v>0</v>
+      </c>
+      <c r="T304">
+        <v>0</v>
+      </c>
+      <c r="U304">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>0</v>
       </c>
@@ -15621,8 +20206,23 @@
       <c r="P305" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q305">
+        <v>0</v>
+      </c>
+      <c r="R305">
+        <v>31.6</v>
+      </c>
+      <c r="S305">
+        <v>41</v>
+      </c>
+      <c r="T305">
+        <v>0</v>
+      </c>
+      <c r="U305">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>0</v>
       </c>
@@ -15671,8 +20271,20 @@
       <c r="P306" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q306">
+        <v>0</v>
+      </c>
+      <c r="R306">
+        <v>3.6</v>
+      </c>
+      <c r="T306">
+        <v>0</v>
+      </c>
+      <c r="U306">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>0</v>
       </c>
@@ -15721,8 +20333,20 @@
       <c r="P307" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q307">
+        <v>0</v>
+      </c>
+      <c r="R307">
+        <v>5</v>
+      </c>
+      <c r="T307">
+        <v>0</v>
+      </c>
+      <c r="U307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>0</v>
       </c>
@@ -15771,8 +20395,23 @@
       <c r="P308" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q308">
+        <v>0.4</v>
+      </c>
+      <c r="R308">
+        <v>0</v>
+      </c>
+      <c r="S308">
+        <v>0.6</v>
+      </c>
+      <c r="T308">
+        <v>0</v>
+      </c>
+      <c r="U308">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>0</v>
       </c>
@@ -15821,8 +20460,23 @@
       <c r="P309" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q309">
+        <v>3.8</v>
+      </c>
+      <c r="R309">
+        <v>0.4</v>
+      </c>
+      <c r="S309">
+        <v>0.6</v>
+      </c>
+      <c r="T309">
+        <v>0</v>
+      </c>
+      <c r="U309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>0</v>
       </c>
@@ -15871,8 +20525,23 @@
       <c r="P310" s="1">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q310">
+        <v>18.8</v>
+      </c>
+      <c r="R310">
+        <v>10.3</v>
+      </c>
+      <c r="S310">
+        <v>0</v>
+      </c>
+      <c r="T310">
+        <v>0</v>
+      </c>
+      <c r="U310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>0</v>
       </c>
@@ -15921,8 +20590,23 @@
       <c r="P311" s="1">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q311">
+        <v>8</v>
+      </c>
+      <c r="R311">
+        <v>29.5</v>
+      </c>
+      <c r="S311">
+        <v>0</v>
+      </c>
+      <c r="T311">
+        <v>0</v>
+      </c>
+      <c r="U311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>0</v>
       </c>
@@ -15971,8 +20655,23 @@
       <c r="P312" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q312">
+        <v>0.2</v>
+      </c>
+      <c r="R312">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S312">
+        <v>2.6</v>
+      </c>
+      <c r="T312">
+        <v>0</v>
+      </c>
+      <c r="U312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>0</v>
       </c>
@@ -16021,8 +20720,23 @@
       <c r="P313" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q313">
+        <v>3.6</v>
+      </c>
+      <c r="R313">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S313">
+        <v>0</v>
+      </c>
+      <c r="T313">
+        <v>0</v>
+      </c>
+      <c r="U313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>2.4</v>
       </c>
@@ -16071,8 +20785,23 @@
       <c r="P314" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q314">
+        <v>1.6</v>
+      </c>
+      <c r="R314">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="S314">
+        <v>1.6</v>
+      </c>
+      <c r="T314">
+        <v>1.4</v>
+      </c>
+      <c r="U314">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -16121,8 +20850,23 @@
       <c r="P315" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q315">
+        <v>0</v>
+      </c>
+      <c r="R315">
+        <v>0</v>
+      </c>
+      <c r="S315">
+        <v>1.2</v>
+      </c>
+      <c r="T315">
+        <v>0</v>
+      </c>
+      <c r="U315">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>12.6</v>
       </c>
@@ -16171,8 +20915,23 @@
       <c r="P316" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q316">
+        <v>0</v>
+      </c>
+      <c r="R316">
+        <v>6.2</v>
+      </c>
+      <c r="S316">
+        <v>3</v>
+      </c>
+      <c r="T316">
+        <v>0</v>
+      </c>
+      <c r="U316">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>24.4</v>
       </c>
@@ -16221,8 +20980,23 @@
       <c r="P317" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q317">
+        <v>0</v>
+      </c>
+      <c r="R317">
+        <v>0</v>
+      </c>
+      <c r="S317">
+        <v>0</v>
+      </c>
+      <c r="T317">
+        <v>0</v>
+      </c>
+      <c r="U317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>15</v>
       </c>
@@ -16271,8 +21045,23 @@
       <c r="P318" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q318">
+        <v>0</v>
+      </c>
+      <c r="R318">
+        <v>0</v>
+      </c>
+      <c r="S318">
+        <v>0</v>
+      </c>
+      <c r="T318">
+        <v>0</v>
+      </c>
+      <c r="U318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>17.2</v>
       </c>
@@ -16321,8 +21110,23 @@
       <c r="P319" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q319">
+        <v>0</v>
+      </c>
+      <c r="R319">
+        <v>0</v>
+      </c>
+      <c r="S319">
+        <v>54.1</v>
+      </c>
+      <c r="T319">
+        <v>0.8</v>
+      </c>
+      <c r="U319">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>6</v>
       </c>
@@ -16371,8 +21175,23 @@
       <c r="P320" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q320">
+        <v>0</v>
+      </c>
+      <c r="R320">
+        <v>0</v>
+      </c>
+      <c r="S320">
+        <v>12.1</v>
+      </c>
+      <c r="T320">
+        <v>0</v>
+      </c>
+      <c r="U320">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>6.1</v>
       </c>
@@ -16421,8 +21240,23 @@
       <c r="P321" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q321">
+        <v>0</v>
+      </c>
+      <c r="R321">
+        <v>0</v>
+      </c>
+      <c r="S321">
+        <v>0</v>
+      </c>
+      <c r="T321">
+        <v>0.2</v>
+      </c>
+      <c r="U321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>0.2</v>
       </c>
@@ -16471,8 +21305,23 @@
       <c r="P322" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q322">
+        <v>0</v>
+      </c>
+      <c r="R322">
+        <v>0</v>
+      </c>
+      <c r="S322">
+        <v>0</v>
+      </c>
+      <c r="T322">
+        <v>0</v>
+      </c>
+      <c r="U322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>0.3</v>
       </c>
@@ -16521,8 +21370,23 @@
       <c r="P323" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q323">
+        <v>0</v>
+      </c>
+      <c r="R323">
+        <v>0</v>
+      </c>
+      <c r="S323">
+        <v>25.8</v>
+      </c>
+      <c r="T323">
+        <v>0</v>
+      </c>
+      <c r="U323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>4</v>
       </c>
@@ -16571,8 +21435,23 @@
       <c r="P324" s="1">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q324">
+        <v>0</v>
+      </c>
+      <c r="R324">
+        <v>0</v>
+      </c>
+      <c r="S324">
+        <v>1.2</v>
+      </c>
+      <c r="T324">
+        <v>0</v>
+      </c>
+      <c r="U324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>4.0999999999999996</v>
       </c>
@@ -16621,8 +21500,23 @@
       <c r="P325" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q325">
+        <v>0</v>
+      </c>
+      <c r="R325">
+        <v>0.6</v>
+      </c>
+      <c r="S325">
+        <v>22.5</v>
+      </c>
+      <c r="T325">
+        <v>0</v>
+      </c>
+      <c r="U325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>0</v>
       </c>
@@ -16671,8 +21565,23 @@
       <c r="P326" s="1">
         <v>29.4</v>
       </c>
-    </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q326">
+        <v>0</v>
+      </c>
+      <c r="R326">
+        <v>7.3</v>
+      </c>
+      <c r="S326">
+        <v>23.6</v>
+      </c>
+      <c r="T326">
+        <v>0</v>
+      </c>
+      <c r="U326">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>0</v>
       </c>
@@ -16721,8 +21630,23 @@
       <c r="P327" s="1">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q327">
+        <v>0</v>
+      </c>
+      <c r="R327">
+        <v>5</v>
+      </c>
+      <c r="S327">
+        <v>25.1</v>
+      </c>
+      <c r="T327">
+        <v>0</v>
+      </c>
+      <c r="U327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>0</v>
       </c>
@@ -16771,8 +21695,23 @@
       <c r="P328" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q328">
+        <v>0</v>
+      </c>
+      <c r="R328">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="S328">
+        <v>82.2</v>
+      </c>
+      <c r="T328">
+        <v>0</v>
+      </c>
+      <c r="U328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>0</v>
       </c>
@@ -16821,8 +21760,23 @@
       <c r="P329" s="1">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q329">
+        <v>0</v>
+      </c>
+      <c r="R329">
+        <v>0</v>
+      </c>
+      <c r="S329">
+        <v>18</v>
+      </c>
+      <c r="T329">
+        <v>0</v>
+      </c>
+      <c r="U329">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>0</v>
       </c>
@@ -16871,8 +21825,23 @@
       <c r="P330" s="1">
         <v>43.9</v>
       </c>
-    </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q330">
+        <v>0</v>
+      </c>
+      <c r="R330">
+        <v>13.9</v>
+      </c>
+      <c r="S330">
+        <v>0</v>
+      </c>
+      <c r="T330">
+        <v>0</v>
+      </c>
+      <c r="U330">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>1</v>
       </c>
@@ -16921,8 +21890,23 @@
       <c r="P331" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q331">
+        <v>0</v>
+      </c>
+      <c r="R331">
+        <v>0</v>
+      </c>
+      <c r="S331">
+        <v>7.5</v>
+      </c>
+      <c r="T331">
+        <v>0</v>
+      </c>
+      <c r="U331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>0</v>
       </c>
@@ -16971,8 +21955,23 @@
       <c r="P332" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q332">
+        <v>0</v>
+      </c>
+      <c r="R332">
+        <v>0</v>
+      </c>
+      <c r="S332">
+        <v>19.5</v>
+      </c>
+      <c r="T332">
+        <v>0</v>
+      </c>
+      <c r="U332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>0</v>
       </c>
@@ -17021,8 +22020,23 @@
       <c r="P333" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q333">
+        <v>0</v>
+      </c>
+      <c r="R333">
+        <v>0</v>
+      </c>
+      <c r="S333">
+        <v>0</v>
+      </c>
+      <c r="T333">
+        <v>0</v>
+      </c>
+      <c r="U333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>0</v>
       </c>
@@ -17071,8 +22085,23 @@
       <c r="P334" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q334">
+        <v>0</v>
+      </c>
+      <c r="R334">
+        <v>0</v>
+      </c>
+      <c r="S334">
+        <v>0</v>
+      </c>
+      <c r="T334">
+        <v>0</v>
+      </c>
+      <c r="U334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>0</v>
       </c>
@@ -17121,8 +22150,23 @@
       <c r="P335" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q335">
+        <v>0</v>
+      </c>
+      <c r="R335">
+        <v>8</v>
+      </c>
+      <c r="S335">
+        <v>3.2</v>
+      </c>
+      <c r="T335">
+        <v>0</v>
+      </c>
+      <c r="U335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>0</v>
       </c>
@@ -17171,8 +22215,23 @@
       <c r="P336" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q336">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="R336">
+        <v>0</v>
+      </c>
+      <c r="S336">
+        <v>67.2</v>
+      </c>
+      <c r="T336">
+        <v>0</v>
+      </c>
+      <c r="U336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>0</v>
       </c>
@@ -17221,8 +22280,23 @@
       <c r="P337" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q337">
+        <v>0</v>
+      </c>
+      <c r="R337">
+        <v>0</v>
+      </c>
+      <c r="S337">
+        <v>0</v>
+      </c>
+      <c r="T337">
+        <v>0.6</v>
+      </c>
+      <c r="U337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>0</v>
       </c>
@@ -17271,8 +22345,23 @@
       <c r="P338" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q338">
+        <v>0</v>
+      </c>
+      <c r="R338">
+        <v>0</v>
+      </c>
+      <c r="S338">
+        <v>0</v>
+      </c>
+      <c r="T338">
+        <v>0</v>
+      </c>
+      <c r="U338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>0</v>
       </c>
@@ -17321,8 +22410,23 @@
       <c r="P339" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q339">
+        <v>0</v>
+      </c>
+      <c r="R339">
+        <v>0</v>
+      </c>
+      <c r="S339">
+        <v>0</v>
+      </c>
+      <c r="T339">
+        <v>4</v>
+      </c>
+      <c r="U339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>0</v>
       </c>
@@ -17371,8 +22475,23 @@
       <c r="P340" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q340">
+        <v>0</v>
+      </c>
+      <c r="R340">
+        <v>0</v>
+      </c>
+      <c r="S340">
+        <v>0</v>
+      </c>
+      <c r="T340">
+        <v>25</v>
+      </c>
+      <c r="U340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>0</v>
       </c>
@@ -17421,8 +22540,23 @@
       <c r="P341" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q341">
+        <v>0</v>
+      </c>
+      <c r="R341">
+        <v>0</v>
+      </c>
+      <c r="S341">
+        <v>0</v>
+      </c>
+      <c r="T341">
+        <v>9.5</v>
+      </c>
+      <c r="U341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>0</v>
       </c>
@@ -17471,8 +22605,23 @@
       <c r="P342" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q342">
+        <v>0</v>
+      </c>
+      <c r="R342">
+        <v>0</v>
+      </c>
+      <c r="S342">
+        <v>0</v>
+      </c>
+      <c r="T342">
+        <v>0</v>
+      </c>
+      <c r="U342">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>0</v>
       </c>
@@ -17521,8 +22670,23 @@
       <c r="P343" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q343">
+        <v>0</v>
+      </c>
+      <c r="R343">
+        <v>0</v>
+      </c>
+      <c r="S343">
+        <v>0</v>
+      </c>
+      <c r="T343">
+        <v>0</v>
+      </c>
+      <c r="U343">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>0</v>
       </c>
@@ -17571,8 +22735,23 @@
       <c r="P344" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q344">
+        <v>0</v>
+      </c>
+      <c r="R344">
+        <v>0</v>
+      </c>
+      <c r="S344">
+        <v>0</v>
+      </c>
+      <c r="T344">
+        <v>0.4</v>
+      </c>
+      <c r="U344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>0</v>
       </c>
@@ -17621,8 +22800,23 @@
       <c r="P345" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q345">
+        <v>45</v>
+      </c>
+      <c r="R345">
+        <v>0</v>
+      </c>
+      <c r="S345">
+        <v>0</v>
+      </c>
+      <c r="T345">
+        <v>0</v>
+      </c>
+      <c r="U345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>0</v>
       </c>
@@ -17671,8 +22865,23 @@
       <c r="P346" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q346">
+        <v>21.6</v>
+      </c>
+      <c r="R346">
+        <v>0.4</v>
+      </c>
+      <c r="S346">
+        <v>0.4</v>
+      </c>
+      <c r="T346">
+        <v>0</v>
+      </c>
+      <c r="U346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>0</v>
       </c>
@@ -17721,8 +22930,23 @@
       <c r="P347" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q347">
+        <v>0</v>
+      </c>
+      <c r="R347">
+        <v>0</v>
+      </c>
+      <c r="S347">
+        <v>2.6</v>
+      </c>
+      <c r="T347">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>7.4</v>
       </c>
@@ -17771,8 +22995,23 @@
       <c r="P348" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q348">
+        <v>0</v>
+      </c>
+      <c r="R348">
+        <v>0</v>
+      </c>
+      <c r="S348">
+        <v>5.8</v>
+      </c>
+      <c r="T348">
+        <v>0.4</v>
+      </c>
+      <c r="U348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>7.4</v>
       </c>
@@ -17821,8 +23060,23 @@
       <c r="P349" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q349">
+        <v>0</v>
+      </c>
+      <c r="R349">
+        <v>0</v>
+      </c>
+      <c r="S349">
+        <v>0</v>
+      </c>
+      <c r="T349">
+        <v>0</v>
+      </c>
+      <c r="U349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>0</v>
       </c>
@@ -17871,8 +23125,23 @@
       <c r="P350" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q350">
+        <v>0</v>
+      </c>
+      <c r="R350">
+        <v>0</v>
+      </c>
+      <c r="S350">
+        <v>0</v>
+      </c>
+      <c r="T350">
+        <v>1</v>
+      </c>
+      <c r="U350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>0</v>
       </c>
@@ -17921,8 +23190,23 @@
       <c r="P351" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q351">
+        <v>0</v>
+      </c>
+      <c r="R351">
+        <v>6.6</v>
+      </c>
+      <c r="S351">
+        <v>0.2</v>
+      </c>
+      <c r="T351">
+        <v>2.4</v>
+      </c>
+      <c r="U351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>0</v>
       </c>
@@ -17971,8 +23255,23 @@
       <c r="P352" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q352">
+        <v>0</v>
+      </c>
+      <c r="R352">
+        <v>0</v>
+      </c>
+      <c r="S352">
+        <v>0</v>
+      </c>
+      <c r="T352">
+        <v>0.2</v>
+      </c>
+      <c r="U352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>0</v>
       </c>
@@ -18021,8 +23320,23 @@
       <c r="P353" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q353">
+        <v>0</v>
+      </c>
+      <c r="R353">
+        <v>0.6</v>
+      </c>
+      <c r="S353">
+        <v>0</v>
+      </c>
+      <c r="T353">
+        <v>0</v>
+      </c>
+      <c r="U353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>0</v>
       </c>
@@ -18071,8 +23385,23 @@
       <c r="P354" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q354">
+        <v>0</v>
+      </c>
+      <c r="R354">
+        <v>43</v>
+      </c>
+      <c r="S354">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T354">
+        <v>0.2</v>
+      </c>
+      <c r="U354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>0</v>
       </c>
@@ -18121,8 +23450,23 @@
       <c r="P355" s="1">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q355">
+        <v>0</v>
+      </c>
+      <c r="R355">
+        <v>0</v>
+      </c>
+      <c r="S355">
+        <v>57.5</v>
+      </c>
+      <c r="T355">
+        <v>30.6</v>
+      </c>
+      <c r="U355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>0</v>
       </c>
@@ -18171,8 +23515,23 @@
       <c r="P356" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q356">
+        <v>0</v>
+      </c>
+      <c r="R356">
+        <v>0</v>
+      </c>
+      <c r="S356">
+        <v>10.1</v>
+      </c>
+      <c r="T356">
+        <v>26.8</v>
+      </c>
+      <c r="U356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>0</v>
       </c>
@@ -18221,8 +23580,23 @@
       <c r="P357" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q357">
+        <v>0</v>
+      </c>
+      <c r="R357">
+        <v>0</v>
+      </c>
+      <c r="S357">
+        <v>0</v>
+      </c>
+      <c r="T357">
+        <v>0</v>
+      </c>
+      <c r="U357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>0</v>
       </c>
@@ -18271,8 +23645,23 @@
       <c r="P358" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q358">
+        <v>0</v>
+      </c>
+      <c r="R358">
+        <v>0</v>
+      </c>
+      <c r="S358">
+        <v>0</v>
+      </c>
+      <c r="T358">
+        <v>0</v>
+      </c>
+      <c r="U358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>0</v>
       </c>
@@ -18321,8 +23710,23 @@
       <c r="P359" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q359">
+        <v>0</v>
+      </c>
+      <c r="R359">
+        <v>0</v>
+      </c>
+      <c r="S359">
+        <v>0</v>
+      </c>
+      <c r="T359">
+        <v>0.6</v>
+      </c>
+      <c r="U359">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>0</v>
       </c>
@@ -18371,8 +23775,23 @@
       <c r="P360" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q360">
+        <v>2.4</v>
+      </c>
+      <c r="R360">
+        <v>0</v>
+      </c>
+      <c r="S360">
+        <v>0</v>
+      </c>
+      <c r="T360">
+        <v>0</v>
+      </c>
+      <c r="U360">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>0</v>
       </c>
@@ -18421,8 +23840,23 @@
       <c r="P361" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q361">
+        <v>23.5</v>
+      </c>
+      <c r="R361">
+        <v>0</v>
+      </c>
+      <c r="S361">
+        <v>0</v>
+      </c>
+      <c r="T361">
+        <v>11.9</v>
+      </c>
+      <c r="U361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>0</v>
       </c>
@@ -18471,8 +23905,23 @@
       <c r="P362" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q362">
+        <v>10.1</v>
+      </c>
+      <c r="R362">
+        <v>0</v>
+      </c>
+      <c r="S362">
+        <v>0</v>
+      </c>
+      <c r="T362">
+        <v>0</v>
+      </c>
+      <c r="U362">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>0</v>
       </c>
@@ -18521,8 +23970,23 @@
       <c r="P363" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q363">
+        <v>0</v>
+      </c>
+      <c r="R363">
+        <v>0</v>
+      </c>
+      <c r="S363">
+        <v>0</v>
+      </c>
+      <c r="T363">
+        <v>22.4</v>
+      </c>
+      <c r="U363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>0</v>
       </c>
@@ -18571,8 +24035,23 @@
       <c r="P364" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q364">
+        <v>0</v>
+      </c>
+      <c r="R364">
+        <v>0</v>
+      </c>
+      <c r="S364">
+        <v>0</v>
+      </c>
+      <c r="T364">
+        <v>0</v>
+      </c>
+      <c r="U364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>0</v>
       </c>
@@ -18621,8 +24100,23 @@
       <c r="P365" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q365">
+        <v>0</v>
+      </c>
+      <c r="R365">
+        <v>0</v>
+      </c>
+      <c r="S365">
+        <v>0</v>
+      </c>
+      <c r="T365">
+        <v>0</v>
+      </c>
+      <c r="U365">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>0</v>
       </c>
@@ -18671,8 +24165,23 @@
       <c r="P366" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q366">
+        <v>0</v>
+      </c>
+      <c r="R366">
+        <v>0</v>
+      </c>
+      <c r="S366">
+        <v>0</v>
+      </c>
+      <c r="T366">
+        <v>0</v>
+      </c>
+      <c r="U366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -18696,6 +24205,9 @@
       <c r="O367" s="1"/>
       <c r="P367" s="1">
         <v>0</v>
+      </c>
+      <c r="T367">
+        <v>11.2</v>
       </c>
     </row>
   </sheetData>

--- a/data/nice.xlsx
+++ b/data/nice.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aminata\Desktop\IMAFA\UE Mathematiques pour la Modélisation\actuariat\Assurance_meteo\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Assurance_meteo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B19D37-8DDE-47E9-87B9-049549F1C4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0706BCA4-C972-4014-BDE4-B9E1687F3FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -39,10 +39,6 @@
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Feuil1;Extended Properties=&quot;&quot;" command="SELECT * FROM [Feuil1]"/>
   </connection>
 </connections>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,13 +366,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9043F5E7-EBFE-4CC0-AE2A-182A16882B0E}">
   <dimension ref="A1:U367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:U1"/>
+    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
+      <selection activeCell="U367" sqref="U367"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <f>2001</f>
         <v>2001</v>
@@ -462,7 +458,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -527,7 +523,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>0.4</v>
       </c>
@@ -592,7 +588,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -657,7 +653,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>17</v>
       </c>
@@ -722,7 +718,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5.8</v>
       </c>
@@ -787,7 +783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -852,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -917,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.2</v>
       </c>
@@ -982,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -1047,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1112,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1.8</v>
       </c>
@@ -1177,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>3.4</v>
       </c>
@@ -1242,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>3.3</v>
       </c>
@@ -1307,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -1372,7 +1368,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -1437,7 +1433,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>0.2</v>
       </c>
@@ -1502,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>10.6</v>
       </c>
@@ -1567,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>0.8</v>
       </c>
@@ -1632,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>0.8</v>
       </c>
@@ -1697,7 +1693,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -1762,7 +1758,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -1827,7 +1823,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -1892,7 +1888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1.2</v>
       </c>
@@ -1957,7 +1953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>10.4</v>
       </c>
@@ -2022,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>6.2</v>
       </c>
@@ -2087,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>8.8000000000000007</v>
       </c>
@@ -2152,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>8.9</v>
       </c>
@@ -2217,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>3.6</v>
       </c>
@@ -2282,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>0.2</v>
       </c>
@@ -2347,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>0.3</v>
       </c>
@@ -2412,7 +2408,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -2477,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>0.3</v>
       </c>
@@ -2542,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -2607,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -2672,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -2737,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -2802,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -2867,7 +2863,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -2932,7 +2928,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>5.6</v>
       </c>
@@ -2997,7 +2993,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -3062,7 +3058,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -3127,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>0</v>
       </c>
@@ -3192,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>0</v>
       </c>
@@ -3257,7 +3253,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>0</v>
       </c>
@@ -3322,7 +3318,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>0</v>
       </c>
@@ -3387,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>0</v>
       </c>
@@ -3452,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -3517,7 +3513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -3582,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -3647,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>0</v>
       </c>
@@ -3712,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>0</v>
       </c>
@@ -3777,7 +3773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>0</v>
       </c>
@@ -3842,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>0</v>
       </c>
@@ -3907,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>0</v>
       </c>
@@ -3972,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>0.8</v>
       </c>
@@ -4037,7 +4033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>7.6</v>
       </c>
@@ -4102,7 +4098,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>7.6</v>
       </c>
@@ -4167,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>17.399999999999999</v>
       </c>
@@ -4232,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>1.2</v>
       </c>
@@ -4297,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>1.3</v>
       </c>
@@ -4362,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>14.4</v>
       </c>
@@ -4427,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>0.4</v>
       </c>
@@ -4492,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>0.4</v>
       </c>
@@ -4557,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>0.5</v>
       </c>
@@ -4622,7 +4618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -4687,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>0.2</v>
       </c>
@@ -4752,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>12.4</v>
       </c>
@@ -4817,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>12.4</v>
       </c>
@@ -4882,7 +4878,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>0</v>
       </c>
@@ -4947,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>0</v>
       </c>
@@ -5012,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>1.6</v>
       </c>
@@ -5077,7 +5073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>1.5</v>
       </c>
@@ -5142,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>0</v>
       </c>
@@ -5207,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>0</v>
       </c>
@@ -5272,7 +5268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>18.600000000000001</v>
       </c>
@@ -5337,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>3</v>
       </c>
@@ -5402,7 +5398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>0.2</v>
       </c>
@@ -5467,7 +5463,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>0</v>
       </c>
@@ -5532,7 +5528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>0</v>
       </c>
@@ -5597,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>0</v>
       </c>
@@ -5662,7 +5658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>0</v>
       </c>
@@ -5727,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>0</v>
       </c>
@@ -5792,7 +5788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>0</v>
       </c>
@@ -5857,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>0.2</v>
       </c>
@@ -5922,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>0.3</v>
       </c>
@@ -5987,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>0</v>
       </c>
@@ -6052,7 +6048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>3.2</v>
       </c>
@@ -6117,7 +6113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>3.6</v>
       </c>
@@ -6182,7 +6178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>3.6</v>
       </c>
@@ -6247,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>0</v>
       </c>
@@ -6312,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>0</v>
       </c>
@@ -6377,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>0</v>
       </c>
@@ -6442,7 +6438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>0</v>
       </c>
@@ -6507,7 +6503,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>0</v>
       </c>
@@ -6572,7 +6568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>0</v>
       </c>
@@ -6637,7 +6633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>8.8000000000000007</v>
       </c>
@@ -6702,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>0.2</v>
       </c>
@@ -6767,7 +6763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>0.3</v>
       </c>
@@ -6832,7 +6828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>0</v>
       </c>
@@ -6897,7 +6893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>0</v>
       </c>
@@ -6962,7 +6958,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>0</v>
       </c>
@@ -7027,7 +7023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>0</v>
       </c>
@@ -7092,7 +7088,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>0</v>
       </c>
@@ -7157,7 +7153,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>0</v>
       </c>
@@ -7222,7 +7218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>0</v>
       </c>
@@ -7287,7 +7283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>0</v>
       </c>
@@ -7352,7 +7348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>0</v>
       </c>
@@ -7417,7 +7413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>0</v>
       </c>
@@ -7482,7 +7478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>0</v>
       </c>
@@ -7547,7 +7543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>0.4</v>
       </c>
@@ -7612,7 +7608,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>0.5</v>
       </c>
@@ -7677,7 +7673,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>0.2</v>
       </c>
@@ -7742,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>2</v>
       </c>
@@ -7807,7 +7803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>2</v>
       </c>
@@ -7872,7 +7868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>0.2</v>
       </c>
@@ -7937,7 +7933,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>0.3</v>
       </c>
@@ -8002,7 +7998,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>0</v>
       </c>
@@ -8067,7 +8063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>0</v>
       </c>
@@ -8132,7 +8128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>0</v>
       </c>
@@ -8197,7 +8193,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>6.8</v>
       </c>
@@ -8262,7 +8258,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>21.8</v>
       </c>
@@ -8327,7 +8323,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>5.6</v>
       </c>
@@ -8392,7 +8388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>1.6</v>
       </c>
@@ -8457,7 +8453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>0.8</v>
       </c>
@@ -8522,7 +8518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>0.8</v>
       </c>
@@ -8587,7 +8583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>0.8</v>
       </c>
@@ -8652,7 +8648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>0.8</v>
       </c>
@@ -8717,7 +8713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>0</v>
       </c>
@@ -8782,7 +8778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>0</v>
       </c>
@@ -8847,7 +8843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>0.2</v>
       </c>
@@ -8912,7 +8908,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>0.3</v>
       </c>
@@ -8977,7 +8973,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>0</v>
       </c>
@@ -9042,7 +9038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>0</v>
       </c>
@@ -9107,7 +9103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>0</v>
       </c>
@@ -9172,7 +9168,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>0</v>
       </c>
@@ -9237,7 +9233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>0.2</v>
       </c>
@@ -9302,7 +9298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>0.6</v>
       </c>
@@ -9367,7 +9363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>0.5</v>
       </c>
@@ -9432,7 +9428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>0</v>
       </c>
@@ -9497,7 +9493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>11.8</v>
       </c>
@@ -9562,7 +9558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>3.2</v>
       </c>
@@ -9627,7 +9623,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>3.3</v>
       </c>
@@ -9692,7 +9688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>0</v>
       </c>
@@ -9757,7 +9753,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>0</v>
       </c>
@@ -9822,7 +9818,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>0</v>
       </c>
@@ -9887,7 +9883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>0</v>
       </c>
@@ -9952,7 +9948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>0</v>
       </c>
@@ -10017,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>0</v>
       </c>
@@ -10082,7 +10078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>0</v>
       </c>
@@ -10147,7 +10143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>0.2</v>
       </c>
@@ -10212,7 +10208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>6.6</v>
       </c>
@@ -10277,7 +10273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>0.2</v>
       </c>
@@ -10342,7 +10338,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>0.3</v>
       </c>
@@ -10407,7 +10403,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>0</v>
       </c>
@@ -10472,7 +10468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>0</v>
       </c>
@@ -10537,7 +10533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>0</v>
       </c>
@@ -10602,7 +10598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>0</v>
       </c>
@@ -10667,7 +10663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>0</v>
       </c>
@@ -10732,7 +10728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>0</v>
       </c>
@@ -10797,7 +10793,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>0</v>
       </c>
@@ -10862,7 +10858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>0</v>
       </c>
@@ -10927,7 +10923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>0</v>
       </c>
@@ -10992,7 +10988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>0</v>
       </c>
@@ -11057,7 +11053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>0</v>
       </c>
@@ -11122,7 +11118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>0</v>
       </c>
@@ -11187,7 +11183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>0</v>
       </c>
@@ -11252,7 +11248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>0</v>
       </c>
@@ -11317,7 +11313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>0</v>
       </c>
@@ -11382,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>0</v>
       </c>
@@ -11447,7 +11443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>0</v>
       </c>
@@ -11512,7 +11508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>0</v>
       </c>
@@ -11577,7 +11573,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>0</v>
       </c>
@@ -11642,7 +11638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>0</v>
       </c>
@@ -11707,7 +11703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>0</v>
       </c>
@@ -11772,7 +11768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>0</v>
       </c>
@@ -11837,7 +11833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>0</v>
       </c>
@@ -11902,7 +11898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>0</v>
       </c>
@@ -11967,7 +11963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>0</v>
       </c>
@@ -12032,7 +12028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>0</v>
       </c>
@@ -12097,7 +12093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>0</v>
       </c>
@@ -12162,7 +12158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>0</v>
       </c>
@@ -12227,7 +12223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>0</v>
       </c>
@@ -12292,7 +12288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>0</v>
       </c>
@@ -12357,7 +12353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>0</v>
       </c>
@@ -12422,7 +12418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>0</v>
       </c>
@@ -12487,7 +12483,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>0</v>
       </c>
@@ -12552,7 +12548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>0</v>
       </c>
@@ -12617,7 +12613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>0</v>
       </c>
@@ -12682,7 +12678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>0</v>
       </c>
@@ -12747,7 +12743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>0</v>
       </c>
@@ -12812,7 +12808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>0</v>
       </c>
@@ -12877,7 +12873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>0</v>
       </c>
@@ -12942,7 +12938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>0</v>
       </c>
@@ -13007,7 +13003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>0</v>
       </c>
@@ -13072,7 +13068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>0</v>
       </c>
@@ -13137,7 +13133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>0</v>
       </c>
@@ -13202,7 +13198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>0</v>
       </c>
@@ -13267,7 +13263,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>0</v>
       </c>
@@ -13332,7 +13328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -13397,7 +13393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>6.6</v>
       </c>
@@ -13462,7 +13458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>6.6</v>
       </c>
@@ -13527,7 +13523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>0</v>
       </c>
@@ -13592,7 +13588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>0</v>
       </c>
@@ -13657,7 +13653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>0</v>
       </c>
@@ -13722,7 +13718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>0</v>
       </c>
@@ -13787,7 +13783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>0</v>
       </c>
@@ -13852,7 +13848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>0</v>
       </c>
@@ -13917,7 +13913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>0</v>
       </c>
@@ -13982,7 +13978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>0</v>
       </c>
@@ -14047,7 +14043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>0</v>
       </c>
@@ -14112,7 +14108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>0</v>
       </c>
@@ -14177,7 +14173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>0</v>
       </c>
@@ -14242,7 +14238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>0</v>
       </c>
@@ -14307,7 +14303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>0</v>
       </c>
@@ -14372,7 +14368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>0</v>
       </c>
@@ -14437,7 +14433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>0</v>
       </c>
@@ -14502,7 +14498,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>0</v>
       </c>
@@ -14567,7 +14563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>0</v>
       </c>
@@ -14632,7 +14628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>0</v>
       </c>
@@ -14697,7 +14693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>0</v>
       </c>
@@ -14762,7 +14758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>0</v>
       </c>
@@ -14827,7 +14823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>0.2</v>
       </c>
@@ -14892,7 +14888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>0.3</v>
       </c>
@@ -14957,7 +14953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>0</v>
       </c>
@@ -15022,7 +15018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>0</v>
       </c>
@@ -15087,7 +15083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>0</v>
       </c>
@@ -15152,7 +15148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>0</v>
       </c>
@@ -15217,7 +15213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>0</v>
       </c>
@@ -15282,7 +15278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>0</v>
       </c>
@@ -15347,7 +15343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>0</v>
       </c>
@@ -15412,7 +15408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>0</v>
       </c>
@@ -15477,7 +15473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>0</v>
       </c>
@@ -15542,7 +15538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>0</v>
       </c>
@@ -15607,7 +15603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>0</v>
       </c>
@@ -15672,7 +15668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>0</v>
       </c>
@@ -15737,7 +15733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>0</v>
       </c>
@@ -15802,7 +15798,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>0</v>
       </c>
@@ -15867,7 +15863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>0</v>
       </c>
@@ -15932,7 +15928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>0</v>
       </c>
@@ -15997,7 +15993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>0</v>
       </c>
@@ -16062,7 +16058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>0</v>
       </c>
@@ -16127,7 +16123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>0</v>
       </c>
@@ -16192,7 +16188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>0</v>
       </c>
@@ -16257,7 +16253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>0</v>
       </c>
@@ -16322,7 +16318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>0</v>
       </c>
@@ -16387,7 +16383,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>0.2</v>
       </c>
@@ -16452,7 +16448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>0.3</v>
       </c>
@@ -16517,7 +16513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>0</v>
       </c>
@@ -16582,7 +16578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>0</v>
       </c>
@@ -16647,7 +16643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>0</v>
       </c>
@@ -16712,7 +16708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>0</v>
       </c>
@@ -16777,7 +16773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>0</v>
       </c>
@@ -16842,7 +16838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>0</v>
       </c>
@@ -16907,7 +16903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>0</v>
       </c>
@@ -16972,7 +16968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>0</v>
       </c>
@@ -17037,7 +17033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>0</v>
       </c>
@@ -17102,7 +17098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>0.4</v>
       </c>
@@ -17167,7 +17163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>0.5</v>
       </c>
@@ -17232,7 +17228,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>0</v>
       </c>
@@ -17297,7 +17293,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>2.4</v>
       </c>
@@ -17362,7 +17358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -17427,7 +17423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>0</v>
       </c>
@@ -17492,7 +17488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>0</v>
       </c>
@@ -17557,7 +17553,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>0</v>
       </c>
@@ -17622,7 +17618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>10.8</v>
       </c>
@@ -17687,7 +17683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>5.2</v>
       </c>
@@ -17752,7 +17748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>0.8</v>
       </c>
@@ -17817,7 +17813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>0.2</v>
       </c>
@@ -17882,7 +17878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>0</v>
       </c>
@@ -17947,7 +17943,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>0</v>
       </c>
@@ -18012,7 +18008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>0</v>
       </c>
@@ -18077,7 +18073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>1</v>
       </c>
@@ -18142,7 +18138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>0</v>
       </c>
@@ -18207,7 +18203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>0</v>
       </c>
@@ -18272,7 +18268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>0</v>
       </c>
@@ -18337,7 +18333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>0</v>
       </c>
@@ -18402,7 +18398,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>0</v>
       </c>
@@ -18467,7 +18463,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>0</v>
       </c>
@@ -18532,7 +18528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>1.8</v>
       </c>
@@ -18597,7 +18593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -18662,7 +18658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>0</v>
       </c>
@@ -18727,7 +18723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>3.6</v>
       </c>
@@ -18792,7 +18788,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>3.6</v>
       </c>
@@ -18857,7 +18853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>0</v>
       </c>
@@ -18922,7 +18918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>0</v>
       </c>
@@ -18987,7 +18983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>0</v>
       </c>
@@ -19052,7 +19048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>0</v>
       </c>
@@ -19117,7 +19113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>0</v>
       </c>
@@ -19182,7 +19178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>0</v>
       </c>
@@ -19247,7 +19243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>0</v>
       </c>
@@ -19312,7 +19308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>0</v>
       </c>
@@ -19377,7 +19373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>0</v>
       </c>
@@ -19442,7 +19438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>16.600000000000001</v>
       </c>
@@ -19507,7 +19503,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>16.5</v>
       </c>
@@ -19572,7 +19568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>0</v>
       </c>
@@ -19637,7 +19633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>0.8</v>
       </c>
@@ -19702,7 +19698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>0.8</v>
       </c>
@@ -19767,7 +19763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>0</v>
       </c>
@@ -19832,7 +19828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>0</v>
       </c>
@@ -19897,7 +19893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>0</v>
       </c>
@@ -19962,7 +19958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>0</v>
       </c>
@@ -20027,7 +20023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>0</v>
       </c>
@@ -20092,7 +20088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>0</v>
       </c>
@@ -20157,7 +20153,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>0</v>
       </c>
@@ -20222,7 +20218,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>0</v>
       </c>
@@ -20284,7 +20280,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>0</v>
       </c>
@@ -20346,7 +20342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>0</v>
       </c>
@@ -20411,7 +20407,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>0</v>
       </c>
@@ -20476,7 +20472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>0</v>
       </c>
@@ -20541,7 +20537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>0</v>
       </c>
@@ -20606,7 +20602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>0</v>
       </c>
@@ -20671,7 +20667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>0</v>
       </c>
@@ -20736,7 +20732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>2.4</v>
       </c>
@@ -20801,7 +20797,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -20866,7 +20862,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>12.6</v>
       </c>
@@ -20931,7 +20927,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>24.4</v>
       </c>
@@ -20996,7 +20992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>15</v>
       </c>
@@ -21061,7 +21057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>17.2</v>
       </c>
@@ -21126,7 +21122,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>6</v>
       </c>
@@ -21191,7 +21187,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>6.1</v>
       </c>
@@ -21256,7 +21252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>0.2</v>
       </c>
@@ -21321,7 +21317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>0.3</v>
       </c>
@@ -21386,7 +21382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>4</v>
       </c>
@@ -21451,7 +21447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>4.0999999999999996</v>
       </c>
@@ -21516,7 +21512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>0</v>
       </c>
@@ -21581,7 +21577,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>0</v>
       </c>
@@ -21646,7 +21642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>0</v>
       </c>
@@ -21711,7 +21707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>0</v>
       </c>
@@ -21776,7 +21772,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>0</v>
       </c>
@@ -21841,7 +21837,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>1</v>
       </c>
@@ -21906,7 +21902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>0</v>
       </c>
@@ -21971,7 +21967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>0</v>
       </c>
@@ -22036,7 +22032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>0</v>
       </c>
@@ -22101,7 +22097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>0</v>
       </c>
@@ -22166,7 +22162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>0</v>
       </c>
@@ -22231,7 +22227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>0</v>
       </c>
@@ -22296,7 +22292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>0</v>
       </c>
@@ -22361,7 +22357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>0</v>
       </c>
@@ -22426,7 +22422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>0</v>
       </c>
@@ -22491,7 +22487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>0</v>
       </c>
@@ -22556,7 +22552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>0</v>
       </c>
@@ -22621,7 +22617,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>0</v>
       </c>
@@ -22686,7 +22682,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>0</v>
       </c>
@@ -22751,7 +22747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>0</v>
       </c>
@@ -22816,7 +22812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>0</v>
       </c>
@@ -22881,7 +22877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>0</v>
       </c>
@@ -22946,7 +22942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>7.4</v>
       </c>
@@ -23011,7 +23007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>7.4</v>
       </c>
@@ -23076,7 +23072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>0</v>
       </c>
@@ -23141,7 +23137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>0</v>
       </c>
@@ -23206,7 +23202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>0</v>
       </c>
@@ -23271,7 +23267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>0</v>
       </c>
@@ -23336,7 +23332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>0</v>
       </c>
@@ -23401,7 +23397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>0</v>
       </c>
@@ -23466,7 +23462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>0</v>
       </c>
@@ -23531,7 +23527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>0</v>
       </c>
@@ -23596,7 +23592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>0</v>
       </c>
@@ -23661,7 +23657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>0</v>
       </c>
@@ -23726,7 +23722,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>0</v>
       </c>
@@ -23791,7 +23787,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>0</v>
       </c>
@@ -23856,7 +23852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>0</v>
       </c>
@@ -23921,7 +23917,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>0</v>
       </c>
@@ -23986,7 +23982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>0</v>
       </c>
@@ -24051,7 +24047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>0</v>
       </c>
@@ -24116,7 +24112,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>0</v>
       </c>
@@ -24181,33 +24177,69 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A367" s="1"/>
-      <c r="B367" s="1"/>
-      <c r="C367" s="1"/>
+    <row r="367" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A367" s="1">
+        <v>0</v>
+      </c>
+      <c r="B367" s="1">
+        <v>0</v>
+      </c>
+      <c r="C367" s="1">
+        <v>0</v>
+      </c>
       <c r="D367" s="1">
         <v>0</v>
       </c>
-      <c r="E367" s="1"/>
-      <c r="F367" s="1"/>
-      <c r="G367" s="1"/>
+      <c r="E367" s="1">
+        <v>0</v>
+      </c>
+      <c r="F367" s="1">
+        <v>0</v>
+      </c>
+      <c r="G367" s="1">
+        <v>0</v>
+      </c>
       <c r="H367" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I367" s="1"/>
-      <c r="J367" s="1"/>
-      <c r="K367" s="1"/>
+      <c r="I367" s="1">
+        <v>0</v>
+      </c>
+      <c r="J367" s="1">
+        <v>0</v>
+      </c>
+      <c r="K367" s="1">
+        <v>0</v>
+      </c>
       <c r="L367" s="1">
         <v>0</v>
       </c>
-      <c r="M367" s="1"/>
-      <c r="N367" s="1"/>
-      <c r="O367" s="1"/>
+      <c r="M367" s="1">
+        <v>0</v>
+      </c>
+      <c r="N367" s="1">
+        <v>0</v>
+      </c>
+      <c r="O367" s="1">
+        <v>0</v>
+      </c>
       <c r="P367" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q367" s="1">
+        <v>0</v>
+      </c>
+      <c r="R367" s="1">
+        <v>0</v>
+      </c>
+      <c r="S367" s="1">
         <v>0</v>
       </c>
       <c r="T367">
         <v>11.2</v>
+      </c>
+      <c r="U367">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
